--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -6,16 +6,119 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Elements" r:id="rId3" sheetId="1"/>
+    <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$13</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="108">
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-model-diagnosticimagingprescription</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2020-05-12T13:07:15+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>HL7 Belgium</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Logical model describing the model for the diagnostic imaging prescription. This draft is used in the HL7 Belgian workgroup for referral.</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>logical</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>specialization</t>
+  </si>
   <si>
     <t>Path</t>
   </si>
@@ -120,9 +223,6 @@
   </si>
   <si>
     <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription</t>
   </si>
   <si>
     <t/>
@@ -375,29 +475,183 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.703125" customWidth="true"/>
+    <col min="2" max="2" width="80.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
+    <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -443,1270 +697,1252 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>7</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" hidden="true">
-      <c r="A2" t="s" s="2">
-        <v>35</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s" s="2">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s" s="2">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s" s="2">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s" s="2">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="AF13" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="AG13" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI13">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI12">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="108">
   <si>
     <t>Property</t>
   </si>
@@ -480,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -568,77 +568,85 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B21" t="s" s="2">
         <v>34</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="110">
   <si>
     <t>Property</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -247,6 +250,9 @@
 </t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>BeDiagnosticImagingPrescription.relevantClinicalInformation[x]</t>
   </si>
   <si>
@@ -263,8 +269,8 @@
     <t>BeDiagnosticImagingPrescription.diagnosticQuestion[x]</t>
   </si>
   <si>
-    <t>Annotation {Annotation}
-CodeableConcept {CodeableConcept}</t>
+    <t>Annotation
+CodeableConcept</t>
   </si>
   <si>
     <t>Either in text or in a coded format. At the discretion of the prescribing party.</t>
@@ -276,8 +282,8 @@
     <t>BeDiagnosticImagingPrescription.contraIndication[x]</t>
   </si>
   <si>
-    <t>Reference(Device|Condition|Observation|MedicationStatement|AllergyIntolerance)
-CodeableConcept {CodeableConcept}Annotation {Annotation}</t>
+    <t>CodeableConcept
+AnnotationReference(Device|Condition|Observation|MedicationStatement|AllergyIntolerance)</t>
   </si>
   <si>
     <t>Relevant information in the context of this prescription concerning possible contra indication. For example presence of devices or (suspected) pregnancy. When detailed information can be given, it is RECOMMENDED to express it as structured as possible. If prescriber has no knowledge of contra indication, this SHALL be expressed with a 'ASKU' nullFlavor ( = Information was sought but not found  ) in codeableConcept.</t>
@@ -326,7 +332,7 @@
     <t>BeDiagnosticImagingPrescription.bodySite</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {CodeableConcept}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -342,7 +348,7 @@
     <t>BeDiagnosticImagingPrescription.contrastFluid</t>
   </si>
   <si>
-    <t xml:space="preserve">code {code}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -657,7 +663,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -701,6 +707,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
+    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -809,6 +816,9 @@
       <c r="AI1" t="s" s="1">
         <v>69</v>
       </c>
+      <c r="AJ1" t="s" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -816,1138 +826,1196 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="L2" t="s" s="2">
+        <v>21</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L8" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="L9" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L10" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L11" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L12" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L13" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -72,7 +72,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="181">
   <si>
     <t>Property</t>
   </si>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-model-referralprescription</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -240,13 +240,243 @@
     <t>Base</t>
   </si>
   <si>
+    <t>BeDiagnosticImagingPrescription.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>An identifier for the ReferralPrescription, e.g. the UHMEP identifier, once available</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.identifier</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.status</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Current status</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.status</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.reasonCurrentStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Reason current status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.reasonCurrentStatus</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.authoredOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When this prescription was created</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.authoredOn</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>The prescribing healthcare party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.prescriber</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.co-prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Information about co prescribers</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.co-prescriber.co-prescriber</t>
+  </si>
+  <si>
+    <t>The co-prescriber party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.co-prescriber</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.co-prescriber.co-prescriberSubstitute</t>
+  </si>
+  <si>
+    <t>NIHDI of co prescriber substitute party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.co-prescriberSubstitute</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.co-prescriber.status</t>
+  </si>
+  <si>
+    <t>Status of co prescribing status (to sign, signed or refused)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.status</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.patient</t>
+  </si>
+  <si>
+    <t>The SSIN of the person for which the referral is prescribed.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.patient</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.originalRequest</t>
+  </si>
+  <si>
+    <t>The original request or prescription triggered this prescription</t>
+  </si>
+  <si>
+    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.originalRequest</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.reason</t>
+  </si>
+  <si>
+    <t>The problem (code or reference) that is the main reason for this prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.reason</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t>The required discipline of the provider party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.validityPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Period of validity of prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.validityPeriod</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.executionPeriod</t>
+  </si>
+  <si>
+    <t>When this prescription is executed, available after start of execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.executionPeriod</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.prescribedService</t>
+  </si>
+  <si>
+    <t>What is prescribed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.prescribedService</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>Parties that shall be informed of the results of the prescription other then the prescriber.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Additional text notes about the request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.note</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intent</t>
+  </si>
+  <si>
+    <t>Proposal, Prolongation, Prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intent</t>
+  </si>
+  <si>
     <t>BeDiagnosticImagingPrescription.BeReferralPrescription</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-model-referralprescription
+    <t xml:space="preserve">BeReferralPrescription {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-model-referralprescription}
 </t>
   </si>
   <si>
@@ -295,10 +525,6 @@
     <t>BeDiagnosticImagingPrescription.supportingInformation[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
     <t>BeDiagnosticImagingPrescription.supportingInformation[x].questionnaireResponse</t>
   </si>
   <si>
@@ -332,10 +558,6 @@
     <t>BeDiagnosticImagingPrescription.bodySite</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>bodySite, e.g. using a SNOMED-CT code</t>
   </si>
   <si>
@@ -346,10 +568,6 @@
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.contrastFluid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
   </si>
   <si>
     <t>ifNecessary|notPermitted</t>
@@ -663,7 +881,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AJ34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -696,7 +914,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="39.53515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
@@ -928,28 +1146,28 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="F3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="K3" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="L3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1000,13 +1218,13 @@
         <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>71</v>
@@ -1028,10 +1246,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>71</v>
@@ -1043,10 +1261,10 @@
         <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>82</v>
@@ -1076,13 +1294,11 @@
         <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X4" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="X4" s="2"/>
       <c r="Y4" t="s" s="2">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="Z4" t="s" s="2">
         <v>71</v>
@@ -1100,13 +1316,13 @@
         <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>71</v>
@@ -1120,7 +1336,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1128,10 +1344,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -1143,13 +1359,13 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1200,13 +1416,13 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>71</v>
@@ -1220,7 +1436,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1228,10 +1444,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>71</v>
@@ -1243,13 +1459,13 @@
         <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1300,13 +1516,13 @@
         <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>71</v>
@@ -1320,7 +1536,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1328,10 +1544,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>71</v>
@@ -1343,13 +1559,13 @@
         <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1400,13 +1616,13 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>71</v>
@@ -1420,7 +1636,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1443,13 +1659,13 @@
         <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1500,7 +1716,7 @@
         <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>72</v>
@@ -1520,7 +1736,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1528,10 +1744,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>71</v>
@@ -1543,13 +1759,13 @@
         <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1600,13 +1816,13 @@
         <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>71</v>
@@ -1620,7 +1836,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1631,7 +1847,7 @@
         <v>72</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>71</v>
@@ -1643,13 +1859,13 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1700,13 +1916,13 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>71</v>
@@ -1720,7 +1936,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1728,10 +1944,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>71</v>
@@ -1743,13 +1959,13 @@
         <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1800,13 +2016,13 @@
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>71</v>
@@ -1820,7 +2036,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1828,10 +2044,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>71</v>
@@ -1843,13 +2059,13 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1900,13 +2116,13 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>71</v>
@@ -1920,7 +2136,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1931,7 +2147,7 @@
         <v>72</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>71</v>
@@ -1943,13 +2159,13 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2000,13 +2216,13 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>71</v>
@@ -2015,6 +2231,2106 @@
         <v>71</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="184">
   <si>
     <t>Property</t>
   </si>
@@ -240,7 +240,89 @@
     <t>Base</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.identifier</t>
+    <t>BeDiagnosticImagingPrescription.recordedDate</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When this prescription was created</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.recordedDate</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>The prescribing healthcare party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.prescriber</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.co-prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Information about co prescribers</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.co-prescriber.co-prescriber</t>
+  </si>
+  <si>
+    <t>The co-prescriber party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.co-prescriber</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.co-prescriber.co-prescriberType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Type of the practitioner</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.co-prescriberType</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.co-prescriber.status</t>
+  </si>
+  <si>
+    <t>Status of co prescribing status (to sign, signed or refused)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.status</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.patient</t>
+  </si>
+  <si>
+    <t>The SSIN of the person for which the referral is prescribed.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.patient</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.prescriptionNumber</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
@@ -250,205 +332,132 @@
     <t>An identifier for the ReferralPrescription, e.g. the UHMEP identifier, once available</t>
   </si>
   <si>
-    <t>BeReferralPrescription.identifier</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.status</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
+    <t>BeReferralPrescription.prescriptionNumber</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>The original request or prescription triggered this prescription</t>
+  </si>
+  <si>
+    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
-    <t>Current status</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.status</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.reasonCurrentStatus</t>
+    <t>Period of validity of prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>When this prescription is executed, available after start of execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>The latest moment to end this treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedProvider.discipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
+    <t>The required discipline of the provider party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>What is prescribed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.problemCode</t>
+  </si>
+  <si>
+    <t>The problem (code or reference) that is the main reason for this prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.problemCode</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>Parties that shall be informed of the results of the prescription other then the prescriber.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.status</t>
+  </si>
+  <si>
+    <t>Current status</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.status</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.statusReason</t>
+  </si>
+  <si>
     <t>Reason current status</t>
   </si>
   <si>
-    <t>BeReferralPrescription.reasonCurrentStatus</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.authoredOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When this prescription was created</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.authoredOn</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>The prescribing healthcare party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.prescriber</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.co-prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Information about co prescribers</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.co-prescriber.co-prescriber</t>
-  </si>
-  <si>
-    <t>The co-prescriber party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber.co-prescriber</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.co-prescriber.co-prescriberSubstitute</t>
-  </si>
-  <si>
-    <t>NIHDI of co prescriber substitute party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber.co-prescriberSubstitute</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.co-prescriber.status</t>
-  </si>
-  <si>
-    <t>Status of co prescribing status (to sign, signed or refused)</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber.status</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.patient</t>
-  </si>
-  <si>
-    <t>The SSIN of the person for which the referral is prescribed.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.patient</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.originalRequest</t>
-  </si>
-  <si>
-    <t>The original request or prescription triggered this prescription</t>
-  </si>
-  <si>
-    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.originalRequest</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.reason</t>
-  </si>
-  <si>
-    <t>The problem (code or reference) that is the main reason for this prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.reason</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedProvider</t>
-  </si>
-  <si>
-    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedProvider</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedProvider.provider</t>
-  </si>
-  <si>
-    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedProvider.provider</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedProvider.discipline</t>
-  </si>
-  <si>
-    <t>The required discipline of the provider party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedProvider.discipline</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.validityPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Period of validity of prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.validityPeriod</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.executionPeriod</t>
-  </si>
-  <si>
-    <t>When this prescription is executed, available after start of execution</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.executionPeriod</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.prescribedService</t>
-  </si>
-  <si>
-    <t>What is prescribed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.prescribedService</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.resultReceiver</t>
-  </si>
-  <si>
-    <t>Parties that shall be informed of the results of the prescription other then the prescriber.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.resultReceiver</t>
+    <t>BeReferralPrescription.statusReason</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.note</t>
@@ -881,7 +890,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AJ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1146,10 +1155,10 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>71</v>
@@ -1161,13 +1170,13 @@
         <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1218,13 +1227,13 @@
         <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>71</v>
@@ -1238,7 +1247,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1246,10 +1255,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>71</v>
@@ -1294,35 +1303,37 @@
         <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="AF4" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>71</v>
@@ -1336,7 +1347,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1344,10 +1355,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -1359,13 +1370,13 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1416,13 +1427,13 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>71</v>
@@ -1436,7 +1447,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1444,10 +1455,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>71</v>
@@ -1459,13 +1470,13 @@
         <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1516,13 +1527,13 @@
         <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>71</v>
@@ -1536,7 +1547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1544,10 +1555,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>71</v>
@@ -1559,13 +1570,13 @@
         <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1616,13 +1627,13 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>71</v>
@@ -1636,7 +1647,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1647,7 +1658,7 @@
         <v>72</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>71</v>
@@ -1659,13 +1670,13 @@
         <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1716,13 +1727,13 @@
         <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>71</v>
@@ -1736,7 +1747,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1744,10 +1755,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>71</v>
@@ -1759,13 +1770,13 @@
         <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1816,13 +1827,13 @@
         <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>71</v>
@@ -1836,7 +1847,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1847,7 +1858,7 @@
         <v>72</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>71</v>
@@ -1859,13 +1870,13 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1916,13 +1927,13 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>71</v>
@@ -1936,7 +1947,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1944,10 +1955,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>71</v>
@@ -1962,10 +1973,10 @@
         <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2016,13 +2027,13 @@
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>71</v>
@@ -2036,7 +2047,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2044,10 +2055,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>71</v>
@@ -2059,13 +2070,13 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2116,13 +2127,13 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>71</v>
@@ -2136,7 +2147,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2147,7 +2158,7 @@
         <v>72</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>71</v>
@@ -2159,13 +2170,13 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2216,13 +2227,13 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>71</v>
@@ -2236,7 +2247,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2247,7 +2258,7 @@
         <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>71</v>
@@ -2259,13 +2270,13 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2316,13 +2327,13 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>71</v>
@@ -2336,7 +2347,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2359,13 +2370,13 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2416,7 +2427,7 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>72</v>
@@ -2436,7 +2447,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2459,13 +2470,13 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2516,7 +2527,7 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
@@ -2536,7 +2547,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2544,10 +2555,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>71</v>
@@ -2559,13 +2570,13 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2616,13 +2627,13 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>71</v>
@@ -2636,7 +2647,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2644,10 +2655,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>71</v>
@@ -2659,13 +2670,13 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2716,13 +2727,13 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>71</v>
@@ -2736,7 +2747,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2747,7 +2758,7 @@
         <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>71</v>
@@ -2759,13 +2770,13 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2816,13 +2827,13 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>71</v>
@@ -2836,7 +2847,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2844,10 +2855,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>71</v>
@@ -2859,13 +2870,13 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2916,13 +2927,13 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>71</v>
@@ -2936,7 +2947,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2944,10 +2955,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>71</v>
@@ -2959,13 +2970,13 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2992,13 +3003,11 @@
         <v>71</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>71</v>
@@ -3019,10 +3028,10 @@
         <v>142</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>71</v>
@@ -3047,7 +3056,7 @@
         <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>71</v>
@@ -3059,13 +3068,13 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="L22" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3116,13 +3125,13 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>71</v>
@@ -3136,7 +3145,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3144,10 +3153,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>71</v>
@@ -3159,7 +3168,7 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>148</v>
@@ -3219,10 +3228,10 @@
         <v>149</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>71</v>
@@ -3244,10 +3253,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>71</v>
@@ -3259,13 +3268,13 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>152</v>
-      </c>
       <c r="L24" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3316,13 +3325,13 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>71</v>
@@ -3344,10 +3353,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>71</v>
@@ -3365,7 +3374,7 @@
         <v>155</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3419,10 +3428,10 @@
         <v>153</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>71</v>
@@ -3436,7 +3445,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3459,13 +3468,13 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3516,7 +3525,7 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>72</v>
@@ -3536,7 +3545,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3544,7 +3553,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>73</v>
@@ -3559,13 +3568,13 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3616,10 +3625,10 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>73</v>
@@ -3636,7 +3645,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3644,7 +3653,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>73</v>
@@ -3659,13 +3668,13 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3716,10 +3725,10 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
@@ -3736,7 +3745,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3759,13 +3768,13 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3816,7 +3825,7 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
@@ -4059,13 +4068,13 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4136,7 +4145,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4159,13 +4168,13 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4216,7 +4225,7 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -4236,7 +4245,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4247,7 +4256,7 @@
         <v>72</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>71</v>
@@ -4259,13 +4268,13 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4316,13 +4325,13 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>71</v>
@@ -4331,6 +4340,106 @@
         <v>71</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="187">
   <si>
     <t>Property</t>
   </si>
@@ -439,7 +439,7 @@
     <t>BeDiagnosticImagingPrescription.status</t>
   </si>
   <si>
-    <t>Current status</t>
+    <t>Status of the requisition</t>
   </si>
   <si>
     <t>required</t>
@@ -449,6 +449,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.status</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.clinicalStatus</t>
+  </si>
+  <si>
+    <t>Status of the execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.clinicalStatus</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.statusReason</t>
@@ -890,7 +899,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ35"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3068,7 +3077,7 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>144</v>
@@ -3168,13 +3177,13 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>148</v>
-      </c>
       <c r="L23" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3225,7 +3234,7 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>72</v>
@@ -3245,7 +3254,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3253,7 +3262,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>76</v>
@@ -3268,7 +3277,7 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>151</v>
@@ -3328,7 +3337,7 @@
         <v>152</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3368,13 +3377,13 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="L25" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3425,7 +3434,7 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -3453,10 +3462,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>71</v>
@@ -3474,7 +3483,7 @@
         <v>158</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3528,10 +3537,10 @@
         <v>156</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>71</v>
@@ -3545,7 +3554,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3568,13 +3577,13 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3625,7 +3634,7 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
@@ -3645,7 +3654,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3653,7 +3662,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>73</v>
@@ -3668,13 +3677,13 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3725,10 +3734,10 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
@@ -3745,7 +3754,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3753,7 +3762,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>73</v>
@@ -3768,13 +3777,13 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3825,10 +3834,10 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
@@ -3845,7 +3854,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3868,13 +3877,13 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3925,7 +3934,7 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
@@ -4168,13 +4177,13 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4245,7 +4254,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4271,10 +4280,10 @@
         <v>126</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4325,7 +4334,7 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
@@ -4345,7 +4354,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4356,7 +4365,7 @@
         <v>72</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>71</v>
@@ -4368,13 +4377,13 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4425,13 +4434,13 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>71</v>
@@ -4440,6 +4449,106 @@
         <v>71</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="188">
   <si>
     <t>Property</t>
   </si>
@@ -427,6 +427,15 @@
     <t>BeReferralPrescription.problemCode</t>
   </si>
   <si>
+    <t>BeDiagnosticImagingPrescription.supportingInfo</t>
+  </si>
+  <si>
+    <t>Care Set Problem</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.supportingInfo</t>
+  </si>
+  <si>
     <t>BeDiagnosticImagingPrescription.resultReceiver</t>
   </si>
   <si>
@@ -439,7 +448,7 @@
     <t>BeDiagnosticImagingPrescription.status</t>
   </si>
   <si>
-    <t>Status of the requisition</t>
+    <t>Current status</t>
   </si>
   <si>
     <t>required</t>
@@ -451,15 +460,6 @@
     <t>BeReferralPrescription.status</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.clinicalStatus</t>
-  </si>
-  <si>
-    <t>Status of the execution</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.clinicalStatus</t>
-  </si>
-  <si>
     <t>BeDiagnosticImagingPrescription.statusReason</t>
   </si>
   <si>
@@ -467,6 +467,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.statusReason</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.bodySite</t>
+  </si>
+  <si>
+    <t>bodySite, e.g. using a SNOMED-CT code</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodySite</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.note</t>
@@ -571,12 +580,6 @@
   </si>
   <si>
     <t>If vital to this request, references may be given to previous diagnostic imaging</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.bodySite</t>
-  </si>
-  <si>
-    <t>bodySite, e.g. using a SNOMED-CT code</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.proposedInvestigation</t>
@@ -1867,7 +1870,7 @@
         <v>72</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>71</v>
@@ -1942,7 +1945,7 @@
         <v>72</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>71</v>
@@ -1967,7 +1970,7 @@
         <v>72</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>71</v>
@@ -2042,7 +2045,7 @@
         <v>72</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>71</v>
@@ -2764,10 +2767,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>71</v>
@@ -2839,10 +2842,10 @@
         <v>134</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>71</v>
@@ -2867,7 +2870,7 @@
         <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>71</v>
@@ -2942,7 +2945,7 @@
         <v>72</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>71</v>
@@ -2964,10 +2967,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>71</v>
@@ -2979,7 +2982,7 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>139</v>
@@ -3012,35 +3015,37 @@
         <v>71</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="X21" s="2"/>
-      <c r="Y21" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>142</v>
-      </c>
       <c r="AF21" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>71</v>
@@ -3054,7 +3059,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3080,10 +3085,10 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3110,13 +3115,11 @@
         <v>71</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>71</v>
@@ -3265,7 +3268,7 @@
         <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>71</v>
@@ -3277,13 +3280,13 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3334,13 +3337,13 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>71</v>
@@ -3354,7 +3357,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3362,10 +3365,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>71</v>
@@ -3377,7 +3380,7 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>154</v>
@@ -3437,10 +3440,10 @@
         <v>155</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>71</v>
@@ -3477,13 +3480,13 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="L26" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3534,7 +3537,7 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -3562,10 +3565,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>71</v>
@@ -3583,7 +3586,7 @@
         <v>161</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3637,10 +3640,10 @@
         <v>159</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>71</v>
@@ -3654,7 +3657,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3677,13 +3680,13 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3734,7 +3737,7 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3762,7 +3765,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>73</v>
@@ -3777,13 +3780,13 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3834,10 +3837,10 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3862,7 +3865,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>73</v>
@@ -3877,13 +3880,13 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3934,10 +3937,10 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -3954,7 +3957,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3977,13 +3980,13 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4034,7 +4037,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -4277,13 +4280,13 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4354,7 +4357,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4380,10 +4383,10 @@
         <v>126</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4434,7 +4437,7 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
@@ -4454,7 +4457,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4480,10 +4483,10 @@
         <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4534,7 +4537,7 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-model-diagnosticimagingprescription</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-model-diagnosticimagingprescription</t>
   </si>
   <si>
     <t>Version</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-model-referralprescription</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-model-referralprescription</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -503,7 +503,7 @@
     <t>BeDiagnosticImagingPrescription.BeReferralPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">BeReferralPrescription {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-model-referralprescription}
+    <t xml:space="preserve">BeReferralPrescription {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-model-referralprescription}
 </t>
   </si>
   <si>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="189">
   <si>
     <t>Property</t>
   </si>
@@ -439,7 +439,11 @@
     <t>BeDiagnosticImagingPrescription.resultReceiver</t>
   </si>
   <si>
-    <t>Parties that shall be informed of the results of the prescription other then the prescriber.</t>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
   </si>
   <si>
     <t>BeReferralPrescription.resultReceiver</t>
@@ -2970,7 +2974,7 @@
         <v>72</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>71</v>
@@ -2982,13 +2986,13 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3039,13 +3043,13 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>71</v>
@@ -3059,7 +3063,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3085,10 +3089,10 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3115,11 +3119,11 @@
         <v>71</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>71</v>
@@ -3137,7 +3141,7 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
@@ -3157,7 +3161,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3183,10 +3187,10 @@
         <v>126</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3237,7 +3241,7 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>72</v>
@@ -3257,7 +3261,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3283,10 +3287,10 @@
         <v>126</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3337,7 +3341,7 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>72</v>
@@ -3357,7 +3361,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3380,13 +3384,13 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3437,7 +3441,7 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -3457,7 +3461,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3483,10 +3487,10 @@
         <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3537,7 +3541,7 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -3557,7 +3561,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3580,13 +3584,13 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3637,7 +3641,7 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -3657,7 +3661,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3680,13 +3684,13 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3737,7 +3741,7 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
@@ -3757,7 +3761,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3780,13 +3784,13 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3837,7 +3841,7 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
@@ -3857,7 +3861,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3880,13 +3884,13 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3937,7 +3941,7 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -3957,7 +3961,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3983,10 +3987,10 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4037,7 +4041,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -4057,7 +4061,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4080,13 +4084,13 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4137,7 +4141,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -4157,7 +4161,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4180,13 +4184,13 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4237,7 +4241,7 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -4257,7 +4261,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4280,13 +4284,13 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4337,7 +4341,7 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
@@ -4357,7 +4361,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4383,10 +4387,10 @@
         <v>126</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4437,7 +4441,7 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
@@ -4457,7 +4461,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4483,10 +4487,10 @@
         <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4537,7 +4541,7 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="218">
   <si>
     <t>Property</t>
   </si>
@@ -335,6 +335,37 @@
     <t>BeReferralPrescription.prescriptionNumber</t>
   </si>
   <si>
+    <t>BeDiagnosticImagingPrescription.ppsNumber</t>
+  </si>
+  <si>
+    <t>An identifier for the Prescription Proposal Support</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.ppsNumber</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.ppsRejectionReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Reason for not following the PPS suggestion</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.ppsRejectionReason</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.requisition</t>
+  </si>
+  <si>
+    <t>An identifier for the bundle this prescription belongs to. The type of bundle can be indicated in the type of the identifier</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.requisition</t>
+  </si>
+  <si>
     <t>BeDiagnosticImagingPrescription.basedOn</t>
   </si>
   <si>
@@ -378,25 +409,25 @@
     <t>BeReferralPrescription.treatmentValidationEndDate</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.intendedProvider</t>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer</t>
   </si>
   <si>
     <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedProvider.provider</t>
+    <t>BeReferralPrescription.intendedPerformer</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.performer</t>
   </si>
   <si>
     <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.provider</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedProvider.discipline</t>
+    <t>BeReferralPrescription.intendedPerformer.performer</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.discipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -406,7 +437,25 @@
     <t>The required discipline of the provider party</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.discipline</t>
+    <t>BeReferralPrescription.intendedPerformer.discipline</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>Start and enddate for the particular provider</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.toBePerformedAfter</t>
+  </si>
+  <si>
+    <t>The current prescription should be performed after this one</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.toBePerformedAfter</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.serviceRequested</t>
@@ -473,20 +522,52 @@
     <t>BeReferralPrescription.statusReason</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.bodySite</t>
-  </si>
-  <si>
-    <t>bodySite, e.g. using a SNOMED-CT code</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodySite</t>
+    <t>BeDiagnosticImagingPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>Status of the treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>Reason treatment status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>Place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.bodyLocation.bodySite</t>
+  </si>
+  <si>
+    <t>Anatomical place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation.bodySite</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.bodyLocation.bodyLaterality</t>
+  </si>
+  <si>
+    <t>Side of the body</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
   </si>
   <si>
     <t>Additional text notes about the request.</t>
@@ -584,6 +665,12 @@
   </si>
   <si>
     <t>If vital to this request, references may be given to previous diagnostic imaging</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.bodySite</t>
+  </si>
+  <si>
+    <t>bodySite, e.g. using a SNOMED-CT code</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.proposedInvestigation</t>
@@ -906,7 +993,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1974,7 +2061,7 @@
         <v>72</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>71</v>
@@ -1986,13 +2073,13 @@
         <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2043,13 +2130,13 @@
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>71</v>
@@ -2063,7 +2150,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2071,7 +2158,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>76</v>
@@ -2086,13 +2173,13 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2143,10 +2230,10 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2163,7 +2250,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2186,13 +2273,13 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2243,7 +2330,7 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>72</v>
@@ -2263,7 +2350,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2274,7 +2361,7 @@
         <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>71</v>
@@ -2286,10 +2373,10 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>117</v>
@@ -2349,7 +2436,7 @@
         <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>71</v>
@@ -2371,10 +2458,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -2386,13 +2473,13 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2443,13 +2530,13 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>71</v>
@@ -2463,7 +2550,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2474,7 +2561,7 @@
         <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>71</v>
@@ -2486,13 +2573,13 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2543,13 +2630,13 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>71</v>
@@ -2563,7 +2650,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2571,7 +2658,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>76</v>
@@ -2586,7 +2673,7 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>127</v>
@@ -2646,7 +2733,7 @@
         <v>128</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -2671,10 +2758,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>71</v>
@@ -2686,7 +2773,7 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>130</v>
@@ -2746,10 +2833,10 @@
         <v>131</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>71</v>
@@ -2771,10 +2858,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>71</v>
@@ -2846,10 +2933,10 @@
         <v>134</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>71</v>
@@ -2871,7 +2958,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>76</v>
@@ -2886,13 +2973,13 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2943,10 +3030,10 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -2963,7 +3050,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2971,7 +3058,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>76</v>
@@ -2986,7 +3073,7 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>140</v>
@@ -3046,7 +3133,7 @@
         <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3086,7 +3173,7 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>143</v>
@@ -3119,29 +3206,31 @@
         <v>71</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="X22" s="2"/>
-      <c r="Y22" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
@@ -3161,7 +3250,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3169,7 +3258,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>76</v>
@@ -3184,13 +3273,13 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3241,10 +3330,10 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3261,7 +3350,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3269,10 +3358,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>71</v>
@@ -3284,13 +3373,13 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3341,13 +3430,13 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>71</v>
@@ -3361,7 +3450,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3372,7 +3461,7 @@
         <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>71</v>
@@ -3384,13 +3473,13 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3441,13 +3530,13 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>71</v>
@@ -3461,7 +3550,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3469,7 +3558,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>76</v>
@@ -3484,13 +3573,13 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3541,10 +3630,10 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -3561,7 +3650,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3569,7 +3658,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>76</v>
@@ -3584,13 +3673,13 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3617,13 +3706,11 @@
         <v>71</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>71</v>
@@ -3641,10 +3728,10 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -3672,7 +3759,7 @@
         <v>72</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>71</v>
@@ -3684,13 +3771,13 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="L28" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3741,13 +3828,13 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>71</v>
@@ -3761,7 +3848,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3772,7 +3859,7 @@
         <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>71</v>
@@ -3784,13 +3871,13 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3841,13 +3928,13 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>71</v>
@@ -3861,7 +3948,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3869,10 +3956,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>71</v>
@@ -3884,13 +3971,13 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3944,10 +4031,10 @@
         <v>171</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>71</v>
@@ -3961,7 +4048,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3987,10 +4074,10 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4041,7 +4128,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -4061,7 +4148,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4072,7 +4159,7 @@
         <v>72</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>71</v>
@@ -4084,13 +4171,13 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4141,13 +4228,13 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>71</v>
@@ -4161,7 +4248,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4172,7 +4259,7 @@
         <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>71</v>
@@ -4184,13 +4271,13 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4241,13 +4328,13 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>71</v>
@@ -4261,7 +4348,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4284,13 +4371,13 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4341,7 +4428,7 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
@@ -4361,7 +4448,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4369,10 +4456,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>71</v>
@@ -4384,13 +4471,13 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4441,13 +4528,13 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>71</v>
@@ -4469,7 +4556,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>76</v>
@@ -4484,13 +4571,13 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4544,7 +4631,7 @@
         <v>187</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -4556,6 +4643,1006 @@
         <v>71</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -344,7 +344,7 @@
     <t>BeReferralPrescription.ppsNumber</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.ppsRejectionReason</t>
+    <t>BeDiagnosticImagingPrescription.ppsDenialReason</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
@@ -354,7 +354,7 @@
     <t>Reason for not following the PPS suggestion</t>
   </si>
   <si>
-    <t>BeReferralPrescription.ppsRejectionReason</t>
+    <t>BeReferralPrescription.ppsDenialReason</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.requisition</t>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="221">
   <si>
     <t>Property</t>
   </si>
@@ -447,6 +447,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>Reference to an organization that will add the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.organization</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.toBePerformedAfter</t>
@@ -993,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3258,7 +3267,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>76</v>
@@ -3273,7 +3282,7 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>146</v>
@@ -3333,7 +3342,7 @@
         <v>147</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3373,7 +3382,7 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>149</v>
@@ -3458,7 +3467,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>76</v>
@@ -3533,7 +3542,7 @@
         <v>153</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3573,13 +3582,13 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>156</v>
-      </c>
       <c r="L26" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3630,7 +3639,7 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>72</v>
@@ -3650,7 +3659,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3673,7 +3682,7 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>159</v>
@@ -3706,29 +3715,31 @@
         <v>71</v>
       </c>
       <c r="W27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="X27" s="2"/>
-      <c r="Y27" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
@@ -3748,7 +3759,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3771,13 +3782,13 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3804,13 +3815,11 @@
         <v>71</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>71</v>
@@ -4059,7 +4068,7 @@
         <v>72</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>71</v>
@@ -4071,7 +4080,7 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>173</v>
@@ -4134,7 +4143,7 @@
         <v>72</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>71</v>
@@ -4159,7 +4168,7 @@
         <v>72</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>71</v>
@@ -4171,7 +4180,7 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>176</v>
@@ -4234,7 +4243,7 @@
         <v>72</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>71</v>
@@ -4359,7 +4368,7 @@
         <v>72</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>71</v>
@@ -4371,7 +4380,7 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>182</v>
@@ -4434,7 +4443,7 @@
         <v>72</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>71</v>
@@ -4456,10 +4465,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>71</v>
@@ -4471,7 +4480,7 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>185</v>
@@ -4531,10 +4540,10 @@
         <v>186</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>71</v>
@@ -4571,13 +4580,13 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K36" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="L36" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4628,7 +4637,7 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -4656,10 +4665,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>71</v>
@@ -4677,7 +4686,7 @@
         <v>192</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4731,10 +4740,10 @@
         <v>190</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>71</v>
@@ -4748,7 +4757,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4771,13 +4780,13 @@
         <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4828,7 +4837,7 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
@@ -4848,7 +4857,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4856,7 +4865,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>73</v>
@@ -4871,13 +4880,13 @@
         <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4928,10 +4937,10 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
@@ -4948,7 +4957,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -4956,7 +4965,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>73</v>
@@ -4971,13 +4980,13 @@
         <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5028,10 +5037,10 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
@@ -5048,7 +5057,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5071,13 +5080,13 @@
         <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5128,7 +5137,7 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
@@ -5371,13 +5380,13 @@
         <v>71</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5448,7 +5457,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5474,10 +5483,10 @@
         <v>136</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5528,7 +5537,7 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>72</v>
@@ -5548,7 +5557,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5559,7 +5568,7 @@
         <v>72</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>71</v>
@@ -5571,13 +5580,13 @@
         <v>71</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5628,13 +5637,13 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>71</v>
@@ -5643,6 +5652,106 @@
         <v>71</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -344,7 +344,7 @@
     <t>BeReferralPrescription.ppsNumber</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.ppsDenialReason</t>
+    <t>BeDiagnosticImagingPrescription.ppsRejectionReason</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
@@ -354,7 +354,7 @@
     <t>Reason for not following the PPS suggestion</t>
   </si>
   <si>
-    <t>BeReferralPrescription.ppsDenialReason</t>
+    <t>BeReferralPrescription.ppsRejectionReason</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.requisition</t>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="224">
   <si>
     <t>Property</t>
   </si>
@@ -256,11 +256,20 @@
     <t>BeReferralPrescription.recordedDate</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.prescriber</t>
+    <t>BeDiagnosticImagingPrescription.recorder</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
+  </si>
+  <si>
+    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.recorder</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.prescriber</t>
   </si>
   <si>
     <t>The prescribing healthcare party</t>
@@ -1002,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ47"/>
+  <dimension ref="A1:AJ48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1467,10 +1476,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -1482,13 +1491,13 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1539,13 +1548,13 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>71</v>
@@ -1559,7 +1568,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1570,7 +1579,7 @@
         <v>72</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>71</v>
@@ -1582,7 +1591,7 @@
         <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>89</v>
@@ -1645,7 +1654,7 @@
         <v>72</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>71</v>
@@ -1682,13 +1691,13 @@
         <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="L7" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1739,7 +1748,7 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>72</v>
@@ -1759,7 +1768,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1782,7 +1791,7 @@
         <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>96</v>
@@ -1867,7 +1876,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>76</v>
@@ -1882,7 +1891,7 @@
         <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>99</v>
@@ -1942,7 +1951,7 @@
         <v>100</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -1967,7 +1976,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>76</v>
@@ -1982,13 +1991,13 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2039,10 +2048,10 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2059,7 +2068,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2082,7 +2091,7 @@
         <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>106</v>
@@ -2182,13 +2191,13 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2239,7 +2248,7 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>72</v>
@@ -2259,7 +2268,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2282,7 +2291,7 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>113</v>
@@ -2370,7 +2379,7 @@
         <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>71</v>
@@ -2382,13 +2391,13 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>116</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2439,13 +2448,13 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>71</v>
@@ -2459,7 +2468,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2467,10 +2476,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -2482,13 +2491,13 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2539,13 +2548,13 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>71</v>
@@ -2559,7 +2568,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2567,7 +2576,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>76</v>
@@ -2582,7 +2591,7 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>124</v>
@@ -2642,7 +2651,7 @@
         <v>125</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -2682,7 +2691,7 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>127</v>
@@ -2770,7 +2779,7 @@
         <v>72</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>71</v>
@@ -2782,7 +2791,7 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>130</v>
@@ -2845,7 +2854,7 @@
         <v>72</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>71</v>
@@ -2882,7 +2891,7 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>133</v>
@@ -2967,10 +2976,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>71</v>
@@ -2982,13 +2991,13 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>137</v>
-      </c>
       <c r="L20" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3039,13 +3048,13 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>71</v>
@@ -3059,7 +3068,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3082,7 +3091,7 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>140</v>
@@ -3167,7 +3176,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>76</v>
@@ -3182,7 +3191,7 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>143</v>
@@ -3242,7 +3251,7 @@
         <v>144</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3367,7 +3376,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>76</v>
@@ -3382,7 +3391,7 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>149</v>
@@ -3442,7 +3451,7 @@
         <v>150</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3482,7 +3491,7 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>152</v>
@@ -3567,7 +3576,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>76</v>
@@ -3642,7 +3651,7 @@
         <v>156</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -3682,13 +3691,13 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K27" t="s" s="2">
-        <v>159</v>
-      </c>
       <c r="L27" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3739,7 +3748,7 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
@@ -3759,7 +3768,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3782,7 +3791,7 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>162</v>
@@ -3815,29 +3824,31 @@
         <v>71</v>
       </c>
       <c r="W28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="X28" s="2"/>
-      <c r="Y28" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
@@ -3857,7 +3868,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3880,13 +3891,13 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3913,13 +3924,11 @@
         <v>71</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>71</v>
@@ -3980,7 +3989,7 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>170</v>
@@ -4080,7 +4089,7 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>173</v>
@@ -4168,7 +4177,7 @@
         <v>72</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>71</v>
@@ -4180,7 +4189,7 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>176</v>
@@ -4243,7 +4252,7 @@
         <v>72</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>71</v>
@@ -4268,7 +4277,7 @@
         <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>71</v>
@@ -4280,7 +4289,7 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>179</v>
@@ -4343,7 +4352,7 @@
         <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>71</v>
@@ -4380,7 +4389,7 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>182</v>
@@ -4468,7 +4477,7 @@
         <v>72</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>71</v>
@@ -4480,7 +4489,7 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>185</v>
@@ -4543,7 +4552,7 @@
         <v>72</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>71</v>
@@ -4565,10 +4574,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>71</v>
@@ -4580,7 +4589,7 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>188</v>
@@ -4640,10 +4649,10 @@
         <v>189</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>71</v>
@@ -4680,13 +4689,13 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K37" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="L37" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4737,7 +4746,7 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -4765,10 +4774,10 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>71</v>
@@ -4786,7 +4795,7 @@
         <v>195</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4840,10 +4849,10 @@
         <v>193</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>71</v>
@@ -4857,7 +4866,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4880,13 +4889,13 @@
         <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4937,7 +4946,7 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
@@ -4957,7 +4966,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -4965,7 +4974,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>73</v>
@@ -4980,13 +4989,13 @@
         <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5037,10 +5046,10 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
@@ -5057,7 +5066,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5065,7 +5074,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>73</v>
@@ -5080,13 +5089,13 @@
         <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5137,10 +5146,10 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
@@ -5157,7 +5166,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5180,13 +5189,13 @@
         <v>71</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>207</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5237,7 +5246,7 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
@@ -5480,13 +5489,13 @@
         <v>71</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5557,7 +5566,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5580,13 +5589,13 @@
         <v>71</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5637,7 +5646,7 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
@@ -5657,7 +5666,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5668,7 +5677,7 @@
         <v>72</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>71</v>
@@ -5680,13 +5689,13 @@
         <v>71</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5737,13 +5746,13 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>71</v>
@@ -5752,6 +5761,106 @@
         <v>71</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="227">
   <si>
     <t>Property</t>
   </si>
@@ -416,6 +416,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status before</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.creationEndDate</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.intendedPerformer</t>
@@ -1011,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ48"/>
+  <dimension ref="A1:AJ49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2879,7 +2888,7 @@
         <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>71</v>
@@ -2891,7 +2900,7 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>133</v>
@@ -2954,7 +2963,7 @@
         <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>71</v>
@@ -2991,7 +3000,7 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>136</v>
@@ -3076,10 +3085,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>71</v>
@@ -3091,13 +3100,13 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="L21" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3148,13 +3157,13 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>71</v>
@@ -3168,7 +3177,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3191,7 +3200,7 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>143</v>
@@ -3276,7 +3285,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>76</v>
@@ -3291,7 +3300,7 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>146</v>
@@ -3351,7 +3360,7 @@
         <v>147</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3476,7 +3485,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>76</v>
@@ -3491,7 +3500,7 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>152</v>
@@ -3551,7 +3560,7 @@
         <v>153</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3591,7 +3600,7 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>155</v>
@@ -3676,7 +3685,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>76</v>
@@ -3751,7 +3760,7 @@
         <v>159</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -3791,13 +3800,13 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="L28" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3848,7 +3857,7 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
@@ -3868,7 +3877,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3891,7 +3900,7 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>165</v>
@@ -3924,29 +3933,31 @@
         <v>71</v>
       </c>
       <c r="W29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="X29" s="2"/>
-      <c r="Y29" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
@@ -3966,7 +3977,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3989,13 +4000,13 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4022,13 +4033,11 @@
         <v>71</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>71</v>
@@ -4089,7 +4098,7 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>173</v>
@@ -4189,7 +4198,7 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>176</v>
@@ -4277,7 +4286,7 @@
         <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>71</v>
@@ -4289,7 +4298,7 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>179</v>
@@ -4352,7 +4361,7 @@
         <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>71</v>
@@ -4377,7 +4386,7 @@
         <v>72</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>71</v>
@@ -4389,7 +4398,7 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>182</v>
@@ -4452,7 +4461,7 @@
         <v>72</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>71</v>
@@ -4489,7 +4498,7 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>185</v>
@@ -4577,7 +4586,7 @@
         <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>71</v>
@@ -4589,7 +4598,7 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>188</v>
@@ -4652,7 +4661,7 @@
         <v>72</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>71</v>
@@ -4674,10 +4683,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>71</v>
@@ -4689,7 +4698,7 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>191</v>
@@ -4749,10 +4758,10 @@
         <v>192</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>71</v>
@@ -4789,13 +4798,13 @@
         <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K38" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="L38" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4846,7 +4855,7 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -4874,10 +4883,10 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>71</v>
@@ -4895,7 +4904,7 @@
         <v>198</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4949,10 +4958,10 @@
         <v>196</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>71</v>
@@ -4966,7 +4975,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -4989,13 +4998,13 @@
         <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5046,7 +5055,7 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
@@ -5066,7 +5075,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5074,7 +5083,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>73</v>
@@ -5089,13 +5098,13 @@
         <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5146,10 +5155,10 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
@@ -5166,7 +5175,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5174,7 +5183,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>73</v>
@@ -5189,13 +5198,13 @@
         <v>71</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5246,10 +5255,10 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>73</v>
@@ -5266,7 +5275,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5289,13 +5298,13 @@
         <v>71</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>210</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5346,7 +5355,7 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>72</v>
@@ -5589,13 +5598,13 @@
         <v>71</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5666,7 +5675,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5689,13 +5698,13 @@
         <v>71</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5746,7 +5755,7 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
@@ -5766,7 +5775,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5777,7 +5786,7 @@
         <v>72</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>71</v>
@@ -5789,13 +5798,13 @@
         <v>71</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -5846,13 +5855,13 @@
         <v>71</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>71</v>
@@ -5861,6 +5870,106 @@
         <v>71</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="231">
   <si>
     <t>Property</t>
   </si>
@@ -369,10 +369,27 @@
     <t>BeDiagnosticImagingPrescription.requisition</t>
   </si>
   <si>
-    <t>An identifier for the bundle this prescription belongs to. The type of bundle can be indicated in the type of the identifier</t>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>An identifier for the bundle this prescription belongs to.</t>
   </si>
   <si>
     <t>BeReferralPrescription.requisition</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.requistionType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>The type of bundle can be indicated in the type of the identifier</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.requistionType</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.basedOn</t>
@@ -446,10 +463,6 @@
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>The required discipline of the provider party</t>
@@ -1020,7 +1033,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ49"/>
+  <dimension ref="A1:AJ50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2400,14 +2413,12 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2457,7 +2468,7 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
@@ -2477,7 +2488,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2488,7 +2499,7 @@
         <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -2500,14 +2511,12 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2557,13 +2566,13 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>71</v>
@@ -2577,7 +2586,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2585,10 +2594,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>71</v>
@@ -2600,13 +2609,13 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>124</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2657,13 +2666,13 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>71</v>
@@ -2677,7 +2686,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2685,7 +2694,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>76</v>
@@ -2700,13 +2709,13 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2757,10 +2766,10 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -2777,7 +2786,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2800,13 +2809,13 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2857,7 +2866,7 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
@@ -2877,7 +2886,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2903,10 +2912,10 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2957,7 +2966,7 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
@@ -2977,7 +2986,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2988,7 +2997,7 @@
         <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>71</v>
@@ -3000,13 +3009,13 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3057,13 +3066,13 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>71</v>
@@ -3077,7 +3086,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3100,13 +3109,13 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3157,7 +3166,7 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
@@ -3177,7 +3186,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3185,10 +3194,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>71</v>
@@ -3200,13 +3209,13 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3257,13 +3266,13 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>71</v>
@@ -3277,7 +3286,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3300,13 +3309,13 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3357,7 +3366,7 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -3377,7 +3386,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3385,7 +3394,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>76</v>
@@ -3400,13 +3409,13 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3457,10 +3466,10 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3477,7 +3486,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3503,10 +3512,10 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3557,7 +3566,7 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -3577,7 +3586,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3585,7 +3594,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>76</v>
@@ -3600,13 +3609,13 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3657,10 +3666,10 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -3677,7 +3686,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3700,13 +3709,13 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3757,7 +3766,7 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -3777,7 +3786,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3785,7 +3794,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>76</v>
@@ -3803,10 +3812,10 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3857,10 +3866,10 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -3877,7 +3886,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3900,7 +3909,7 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>165</v>
@@ -4000,13 +4009,13 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4033,29 +4042,31 @@
         <v>71</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Y30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
@@ -4075,7 +4086,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4098,13 +4109,13 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4131,13 +4142,11 @@
         <v>71</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>71</v>
@@ -4155,7 +4164,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -4175,7 +4184,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4198,13 +4207,13 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4255,7 +4264,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -4275,7 +4284,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4298,13 +4307,13 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4355,7 +4364,7 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -4375,7 +4384,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4386,7 +4395,7 @@
         <v>72</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>71</v>
@@ -4398,13 +4407,13 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4455,13 +4464,13 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>71</v>
@@ -4475,7 +4484,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4486,7 +4495,7 @@
         <v>72</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>71</v>
@@ -4498,13 +4507,13 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4555,13 +4564,13 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>71</v>
@@ -4575,7 +4584,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4598,13 +4607,13 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4655,7 +4664,7 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
@@ -4675,7 +4684,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4686,7 +4695,7 @@
         <v>72</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>71</v>
@@ -4698,13 +4707,13 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4755,13 +4764,13 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>71</v>
@@ -4775,7 +4784,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4783,10 +4792,10 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>71</v>
@@ -4798,13 +4807,13 @@
         <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4855,13 +4864,13 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>71</v>
@@ -4875,7 +4884,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4898,7 +4907,7 @@
         <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>197</v>
+        <v>95</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>198</v>
@@ -4955,7 +4964,7 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -4975,7 +4984,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -4983,10 +4992,10 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>71</v>
@@ -4998,10 +5007,10 @@
         <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>202</v>
@@ -5055,13 +5064,13 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>71</v>
@@ -5183,7 +5192,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>73</v>
@@ -5258,7 +5267,7 @@
         <v>207</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>73</v>
@@ -5283,7 +5292,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>73</v>
@@ -5298,13 +5307,13 @@
         <v>71</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5358,7 +5367,7 @@
         <v>211</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>73</v>
@@ -5375,7 +5384,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5398,13 +5407,13 @@
         <v>71</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>213</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5455,7 +5464,7 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
@@ -5475,7 +5484,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5498,13 +5507,13 @@
         <v>71</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5555,7 +5564,7 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>72</v>
@@ -5575,7 +5584,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5598,13 +5607,13 @@
         <v>71</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5655,7 +5664,7 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
@@ -5675,7 +5684,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5698,13 +5707,13 @@
         <v>71</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5755,7 +5764,7 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
@@ -5775,7 +5784,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5798,13 +5807,13 @@
         <v>71</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -5855,7 +5864,7 @@
         <v>71</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
@@ -5875,7 +5884,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -5886,7 +5895,7 @@
         <v>72</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>71</v>
@@ -5898,13 +5907,13 @@
         <v>71</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -5955,13 +5964,13 @@
         <v>71</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>71</v>
@@ -5970,6 +5979,106 @@
         <v>71</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -344,26 +344,26 @@
     <t>BeReferralPrescription.prescriptionNumber</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.ppsNumber</t>
-  </si>
-  <si>
-    <t>An identifier for the Prescription Proposal Support</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.ppsNumber</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.ppsRejectionReason</t>
+    <t>BeDiagnosticImagingPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>An identifier for the Prescription Search Support</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.pssRejectionReason</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
-    <t>Reason for not following the PPS suggestion</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.ppsRejectionReason</t>
+    <t>Reason for not following the PSS suggestion</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssRejectionReason</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.requisition</t>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -1042,42 +1042,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="77.1328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="77.13671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="39.53515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="77.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="77.13671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>76</v>
@@ -1873,7 +1873,7 @@
         <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -2098,7 +2098,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>76</v>
@@ -2173,7 +2173,7 @@
         <v>107</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -3094,7 +3094,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>73</v>
@@ -3169,7 +3169,7 @@
         <v>142</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -3197,7 +3197,7 @@
         <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>71</v>
@@ -3272,7 +3272,7 @@
         <v>72</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>71</v>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -3394,7 +3394,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>76</v>
@@ -3469,7 +3469,7 @@
         <v>151</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="189">
   <si>
     <t>Property</t>
   </si>
@@ -256,22 +256,13 @@
     <t>BeReferralPrescription.recordedDate</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.recorder</t>
+    <t>BeDiagnosticImagingPrescription.prescriber</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
   </si>
   <si>
-    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.recorder</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.prescriber</t>
-  </si>
-  <si>
     <t>The prescribing healthcare party</t>
   </si>
   <si>
@@ -344,272 +335,160 @@
     <t>BeReferralPrescription.prescriptionNumber</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.pssNumber</t>
-  </si>
-  <si>
-    <t>An identifier for the Prescription Search Support</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.pssNumber</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.pssRejectionReason</t>
+    <t>BeDiagnosticImagingPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>The original request or prescription triggered this prescription</t>
+  </si>
+  <si>
+    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Period of validity of prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>When this prescription is executed, available after start of execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>The latest moment to end this treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>The required discipline of the provider party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>What is prescribed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.problemCode</t>
+  </si>
+  <si>
+    <t>The problem (code or reference) that is the main reason for this prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.problemCode</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.supportingInfo</t>
+  </si>
+  <si>
+    <t>Care Set Problem</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.supportingInfo</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.status</t>
+  </si>
+  <si>
+    <t>Current status</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.status</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.statusReason</t>
+  </si>
+  <si>
+    <t>Reason current status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.statusReason</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.bodySite</t>
+  </si>
+  <si>
+    <t>bodySite, e.g. using a SNOMED-CT code</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodySite</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.note</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
-    <t>Reason for not following the PSS suggestion</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.pssRejectionReason</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.requisition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>An identifier for the bundle this prescription belongs to.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.requisition</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.requistionType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>The type of bundle can be indicated in the type of the identifier</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.requistionType</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>The original request or prescription triggered this prescription</t>
-  </si>
-  <si>
-    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Period of validity of prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>When this prescription is executed, available after start of execution</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>The latest moment to end this treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>The prescription must have left the draft status before</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
-    <t>The required discipline of the provider party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.period</t>
-  </si>
-  <si>
-    <t>Start and enddate for the particular provider</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.period</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.organization</t>
-  </si>
-  <si>
-    <t>Reference to an organization that will add the performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.organization</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.toBePerformedAfter</t>
-  </si>
-  <si>
-    <t>The current prescription should be performed after this one</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.toBePerformedAfter</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.serviceRequested</t>
-  </si>
-  <si>
-    <t>What is prescribed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.serviceRequested</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.problemCode</t>
-  </si>
-  <si>
-    <t>The problem (code or reference) that is the main reason for this prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.problemCode</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.supportingInfo</t>
-  </si>
-  <si>
-    <t>Care Set Problem</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.supportingInfo</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.resultReceiver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.resultReceiver</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.status</t>
-  </si>
-  <si>
-    <t>Current status</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.status</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.statusReason</t>
-  </si>
-  <si>
-    <t>Reason current status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.statusReason</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.treatmentStatus</t>
-  </si>
-  <si>
-    <t>Status of the treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentStatus</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.treatmentStatusReason</t>
-  </si>
-  <si>
-    <t>Reason treatment status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentStatusReason</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.bodyLocation</t>
-  </si>
-  <si>
-    <t>Place where the treatment should be executed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.bodyLocation.bodySite</t>
-  </si>
-  <si>
-    <t>Anatomical place where the treatment should be executed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation.bodySite</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.bodyLocation.bodyLaterality</t>
-  </si>
-  <si>
-    <t>Side of the body</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.note</t>
-  </si>
-  <si>
     <t>Additional text notes about the request.</t>
   </si>
   <si>
@@ -705,12 +584,6 @@
   </si>
   <si>
     <t>If vital to this request, references may be given to previous diagnostic imaging</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.bodySite</t>
-  </si>
-  <si>
-    <t>bodySite, e.g. using a SNOMED-CT code</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.proposedInvestigation</t>
@@ -1033,7 +906,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ50"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1498,10 +1371,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -1513,13 +1386,13 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1570,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>71</v>
@@ -1590,7 +1463,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1601,7 +1474,7 @@
         <v>72</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>71</v>
@@ -1613,7 +1486,7 @@
         <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>89</v>
@@ -1676,7 +1549,7 @@
         <v>72</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>71</v>
@@ -1713,13 +1586,13 @@
         <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1770,7 +1643,7 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>72</v>
@@ -1790,7 +1663,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1798,7 +1671,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>76</v>
@@ -1813,7 +1686,7 @@
         <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>96</v>
@@ -1873,7 +1746,7 @@
         <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -1898,7 +1771,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>76</v>
@@ -1913,7 +1786,7 @@
         <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>99</v>
@@ -1973,7 +1846,7 @@
         <v>100</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -1998,7 +1871,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>76</v>
@@ -2013,13 +1886,13 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2070,10 +1943,10 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2090,7 +1963,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2098,10 +1971,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>71</v>
@@ -2113,13 +1986,13 @@
         <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2170,13 +2043,13 @@
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>71</v>
@@ -2190,7 +2063,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2198,7 +2071,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>76</v>
@@ -2213,13 +2086,13 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2270,10 +2143,10 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2290,7 +2163,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2313,13 +2186,13 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2370,7 +2243,7 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>72</v>
@@ -2390,7 +2263,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2413,12 +2286,14 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L14" s="2"/>
+      <c r="L14" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2499,7 +2374,7 @@
         <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -2511,12 +2386,14 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L15" s="2"/>
+      <c r="L15" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2566,13 +2443,13 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>71</v>
@@ -2586,7 +2463,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2612,10 +2489,10 @@
         <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2666,7 +2543,7 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
@@ -2686,7 +2563,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2709,13 +2586,13 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2766,7 +2643,7 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -2786,7 +2663,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2794,7 +2671,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>76</v>
@@ -2809,13 +2686,13 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2866,10 +2743,10 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -2886,7 +2763,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2894,7 +2771,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>76</v>
@@ -2909,13 +2786,13 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2966,10 +2843,10 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -2986,7 +2863,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3009,13 +2886,13 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3066,7 +2943,7 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
@@ -3086,7 +2963,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3094,10 +2971,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>71</v>
@@ -3109,13 +2986,13 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3166,13 +3043,13 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>71</v>
@@ -3186,7 +3063,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3209,13 +3086,13 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3242,13 +3119,11 @@
         <v>71</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>71</v>
@@ -3266,7 +3141,7 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
@@ -3286,7 +3161,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3294,7 +3169,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>76</v>
@@ -3309,13 +3184,13 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3366,10 +3241,10 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3386,7 +3261,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3397,7 +3272,7 @@
         <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>71</v>
@@ -3409,13 +3284,13 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3466,13 +3341,13 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>71</v>
@@ -3486,7 +3361,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3497,7 +3372,7 @@
         <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>71</v>
@@ -3509,13 +3384,13 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3566,13 +3441,13 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>71</v>
@@ -3586,7 +3461,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3594,7 +3469,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>76</v>
@@ -3609,13 +3484,13 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3666,10 +3541,10 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -3686,7 +3561,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3709,13 +3584,13 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3786,7 +3661,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3794,10 +3669,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>71</v>
@@ -3809,13 +3684,13 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3869,10 +3744,10 @@
         <v>163</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>71</v>
@@ -3886,7 +3761,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3897,7 +3772,7 @@
         <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>71</v>
@@ -3909,13 +3784,13 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3966,13 +3841,13 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>71</v>
@@ -3986,7 +3861,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3994,10 +3869,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>71</v>
@@ -4009,13 +3884,13 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4066,13 +3941,13 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>71</v>
@@ -4086,7 +3961,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4097,7 +3972,7 @@
         <v>72</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>71</v>
@@ -4109,13 +3984,13 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4142,11 +4017,13 @@
         <v>71</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>71</v>
@@ -4170,7 +4047,7 @@
         <v>72</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>71</v>
@@ -4195,7 +4072,7 @@
         <v>72</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>71</v>
@@ -4207,13 +4084,13 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4264,13 +4141,13 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>71</v>
@@ -4295,7 +4172,7 @@
         <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>71</v>
@@ -4307,13 +4184,13 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4364,13 +4241,13 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>71</v>
@@ -4395,7 +4272,7 @@
         <v>72</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>71</v>
@@ -4407,13 +4284,13 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4464,13 +4341,13 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>71</v>
@@ -4507,7 +4384,7 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>186</v>
@@ -4564,7 +4441,7 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
@@ -4584,7 +4461,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4607,13 +4484,13 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4664,7 +4541,7 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
@@ -4679,1406 +4556,6 @@
         <v>71</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="234">
   <si>
     <t>Property</t>
   </si>
@@ -256,17 +256,39 @@
     <t>BeReferralPrescription.recordedDate</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.prescriber</t>
+    <t>BeDiagnosticImagingPrescription.recorder</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
   </si>
   <si>
+    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.recorder</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.prescriber</t>
+  </si>
+  <si>
     <t>The prescribing healthcare party</t>
   </si>
   <si>
     <t>BeReferralPrescription.prescriber</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.co-prescriberNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Number of co-prescribers that must sign the prescription to activate it</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriberNumber</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.co-prescriber</t>
@@ -335,6 +357,50 @@
     <t>BeReferralPrescription.prescriptionNumber</t>
   </si>
   <si>
+    <t>BeDiagnosticImagingPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>An identifier for the Prescription Search Support</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.pssRejectionReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Reason for not following the PSS suggestion</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssRejectionReason</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.requisition</t>
+  </si>
+  <si>
+    <t>An identifier for the bundle this prescription belongs to.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.requisition</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.requistionType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>The type of bundle can be indicated in the type of the identifier</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.requistionType</t>
+  </si>
+  <si>
     <t>BeDiagnosticImagingPrescription.basedOn</t>
   </si>
   <si>
@@ -378,35 +444,67 @@
     <t>BeReferralPrescription.treatmentValidationEndDate</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.intendedProvider</t>
+    <t>BeDiagnosticImagingPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status before</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer</t>
   </si>
   <si>
     <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedProvider.provider</t>
+    <t>BeReferralPrescription.intendedPerformer</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.performer</t>
   </si>
   <si>
     <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.provider</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedProvider.discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
+    <t>BeReferralPrescription.intendedPerformer.performer</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.discipline</t>
   </si>
   <si>
     <t>The required discipline of the provider party</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.discipline</t>
+    <t>BeReferralPrescription.intendedPerformer.discipline</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>Start and enddate for the particular provider</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>Reference to an organization that will add the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.toBePerformedAfter</t>
+  </si>
+  <si>
+    <t>The current prescription should be performed after this one</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.toBePerformedAfter</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.serviceRequested</t>
@@ -473,20 +571,52 @@
     <t>BeReferralPrescription.statusReason</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.bodySite</t>
-  </si>
-  <si>
-    <t>bodySite, e.g. using a SNOMED-CT code</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodySite</t>
+    <t>BeDiagnosticImagingPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>Status of the treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>Reason treatment status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>Place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.bodyLocation.bodySite</t>
+  </si>
+  <si>
+    <t>Anatomical place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation.bodySite</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.bodyLocation.bodyLaterality</t>
+  </si>
+  <si>
+    <t>Side of the body</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
   </si>
   <si>
     <t>Additional text notes about the request.</t>
@@ -584,6 +714,12 @@
   </si>
   <si>
     <t>If vital to this request, references may be given to previous diagnostic imaging</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.bodySite</t>
+  </si>
+  <si>
+    <t>bodySite, e.g. using a SNOMED-CT code</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.proposedInvestigation</t>
@@ -906,7 +1042,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AJ51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1371,10 +1507,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -1386,13 +1522,13 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1443,13 +1579,13 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>71</v>
@@ -1463,7 +1599,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1471,7 +1607,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>76</v>
@@ -1486,7 +1622,7 @@
         <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>89</v>
@@ -1546,7 +1682,7 @@
         <v>90</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
@@ -1574,7 +1710,7 @@
         <v>72</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>71</v>
@@ -1649,7 +1785,7 @@
         <v>72</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>71</v>
@@ -1686,7 +1822,7 @@
         <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>96</v>
@@ -1786,13 +1922,13 @@
         <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1843,7 +1979,7 @@
         <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -1863,7 +1999,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1886,7 +2022,7 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>103</v>
@@ -1971,10 +2107,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>71</v>
@@ -1992,7 +2128,7 @@
         <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2043,13 +2179,13 @@
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>71</v>
@@ -2063,7 +2199,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2086,13 +2222,13 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2143,7 +2279,7 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2163,7 +2299,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2186,13 +2322,13 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2243,7 +2379,7 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>72</v>
@@ -2263,7 +2399,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2286,7 +2422,7 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>117</v>
@@ -2374,7 +2510,7 @@
         <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -2386,14 +2522,12 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>120</v>
-      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2449,7 +2583,7 @@
         <v>72</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>71</v>
@@ -2474,7 +2608,7 @@
         <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>71</v>
@@ -2486,14 +2620,12 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2543,13 +2675,13 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>71</v>
@@ -2563,7 +2695,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2571,10 +2703,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>71</v>
@@ -2586,13 +2718,13 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>127</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2643,13 +2775,13 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>71</v>
@@ -2663,7 +2795,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2686,13 +2818,13 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2743,7 +2875,7 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -2763,7 +2895,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2771,7 +2903,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>76</v>
@@ -2786,13 +2918,13 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2843,10 +2975,10 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -2863,7 +2995,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2886,13 +3018,13 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2943,7 +3075,7 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
@@ -2963,7 +3095,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2986,13 +3118,13 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3043,7 +3175,7 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
@@ -3063,7 +3195,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3071,10 +3203,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>71</v>
@@ -3089,10 +3221,10 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3119,35 +3251,37 @@
         <v>71</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Y22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>146</v>
-      </c>
       <c r="AF22" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>71</v>
@@ -3161,7 +3295,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3184,13 +3318,13 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3241,7 +3375,7 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>72</v>
@@ -3261,7 +3395,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3269,10 +3403,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>71</v>
@@ -3284,13 +3418,13 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3341,13 +3475,13 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>71</v>
@@ -3361,7 +3495,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3372,7 +3506,7 @@
         <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>71</v>
@@ -3384,13 +3518,13 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3441,13 +3575,13 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>71</v>
@@ -3461,7 +3595,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3469,7 +3603,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>76</v>
@@ -3484,13 +3618,13 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3541,10 +3675,10 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -3561,7 +3695,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3569,7 +3703,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>76</v>
@@ -3584,13 +3718,13 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3644,7 +3778,7 @@
         <v>160</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -3661,7 +3795,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3669,10 +3803,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>71</v>
@@ -3684,13 +3818,13 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3744,10 +3878,10 @@
         <v>163</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>71</v>
@@ -3761,7 +3895,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3769,10 +3903,10 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>71</v>
@@ -3784,13 +3918,13 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3841,13 +3975,13 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>71</v>
@@ -3861,7 +3995,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3869,10 +4003,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>71</v>
@@ -3884,13 +4018,13 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3941,13 +4075,13 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>71</v>
@@ -3961,7 +4095,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3972,7 +4106,7 @@
         <v>72</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>71</v>
@@ -3984,13 +4118,13 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4041,13 +4175,13 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>71</v>
@@ -4061,7 +4195,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4072,7 +4206,7 @@
         <v>72</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>71</v>
@@ -4084,13 +4218,13 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4117,13 +4251,11 @@
         <v>71</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="X32" s="2"/>
       <c r="Y32" t="s" s="2">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>71</v>
@@ -4141,13 +4273,13 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>71</v>
@@ -4172,7 +4304,7 @@
         <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>71</v>
@@ -4184,13 +4316,13 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K33" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="L33" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4241,13 +4373,13 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>71</v>
@@ -4272,7 +4404,7 @@
         <v>72</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>71</v>
@@ -4284,13 +4416,13 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K34" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="L34" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4341,13 +4473,13 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>71</v>
@@ -4372,7 +4504,7 @@
         <v>72</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>71</v>
@@ -4384,7 +4516,7 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>186</v>
@@ -4441,13 +4573,13 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>71</v>
@@ -4461,7 +4593,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4472,7 +4604,7 @@
         <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>71</v>
@@ -4487,10 +4619,10 @@
         <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4541,13 +4673,13 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>71</v>
@@ -4556,6 +4688,1506 @@
         <v>71</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="237">
   <si>
     <t>Property</t>
   </si>
@@ -333,6 +333,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.co-prescriber.status</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.co-prescriber.required</t>
+  </si>
+  <si>
+    <t>Type of mandatory for the signature of the co-prescriber (1= required: the co-prescriber SHALL sign to make the prescription valid, 2= conditionally required: the co-prescriber SHALL sign if the number of co-prescribers with a signature is lower than the number in co-prescriber number 3= optional: the signature does not affect the validity of the prescription, but is for information only</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.required</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.patient</t>
@@ -1042,7 +1051,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ51"/>
+  <dimension ref="A1:AJ52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2122,7 +2131,7 @@
         <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>106</v>
@@ -2222,13 +2231,13 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2279,7 +2288,7 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2299,7 +2308,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2307,7 +2316,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>76</v>
@@ -2322,7 +2331,7 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>113</v>
@@ -2382,7 +2391,7 @@
         <v>114</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -2422,13 +2431,13 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2479,7 +2488,7 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
@@ -2499,7 +2508,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2522,12 +2531,14 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2620,10 +2631,10 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2675,7 +2686,7 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
@@ -2695,7 +2706,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2706,7 +2717,7 @@
         <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>71</v>
@@ -2718,14 +2729,12 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>128</v>
-      </c>
+      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2775,13 +2784,13 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>71</v>
@@ -2795,7 +2804,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2803,10 +2812,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>71</v>
@@ -2818,13 +2827,13 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2875,13 +2884,13 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>71</v>
@@ -2895,7 +2904,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2903,7 +2912,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>76</v>
@@ -2918,7 +2927,7 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>135</v>
@@ -2978,7 +2987,7 @@
         <v>136</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3018,7 +3027,7 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>138</v>
@@ -3203,10 +3212,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>71</v>
@@ -3218,7 +3227,7 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>144</v>
@@ -3278,10 +3287,10 @@
         <v>145</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>71</v>
@@ -3303,10 +3312,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>71</v>
@@ -3318,7 +3327,7 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>147</v>
@@ -3378,10 +3387,10 @@
         <v>148</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>71</v>
@@ -3403,7 +3412,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>76</v>
@@ -3418,7 +3427,7 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>150</v>
@@ -3478,7 +3487,7 @@
         <v>151</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3503,7 +3512,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>76</v>
@@ -3518,7 +3527,7 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>153</v>
@@ -3578,7 +3587,7 @@
         <v>154</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3618,7 +3627,7 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>156</v>
@@ -3803,7 +3812,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>76</v>
@@ -3818,7 +3827,7 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>162</v>
@@ -3878,7 +3887,7 @@
         <v>163</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -3918,7 +3927,7 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>165</v>
@@ -4003,7 +4012,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>76</v>
@@ -4078,7 +4087,7 @@
         <v>169</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4118,13 +4127,13 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="L31" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4175,7 +4184,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -4195,7 +4204,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4218,7 +4227,7 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>175</v>
@@ -4251,29 +4260,31 @@
         <v>71</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="X32" s="2"/>
-      <c r="Y32" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -4293,7 +4304,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4316,13 +4327,13 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4349,13 +4360,11 @@
         <v>71</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>71</v>
@@ -4416,7 +4425,7 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>183</v>
@@ -4516,7 +4525,7 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>186</v>
@@ -4604,7 +4613,7 @@
         <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>71</v>
@@ -4616,7 +4625,7 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>189</v>
@@ -4679,7 +4688,7 @@
         <v>72</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>71</v>
@@ -4704,7 +4713,7 @@
         <v>72</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>71</v>
@@ -4716,7 +4725,7 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>192</v>
@@ -4779,7 +4788,7 @@
         <v>72</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>71</v>
@@ -4816,7 +4825,7 @@
         <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>195</v>
@@ -4904,7 +4913,7 @@
         <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>71</v>
@@ -4916,7 +4925,7 @@
         <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>198</v>
@@ -4979,7 +4988,7 @@
         <v>72</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>71</v>
@@ -5001,10 +5010,10 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>71</v>
@@ -5016,7 +5025,7 @@
         <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>201</v>
@@ -5076,10 +5085,10 @@
         <v>202</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>71</v>
@@ -5116,13 +5125,13 @@
         <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K41" t="s" s="2">
-        <v>205</v>
-      </c>
       <c r="L41" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5173,7 +5182,7 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -5201,10 +5210,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>71</v>
@@ -5222,7 +5231,7 @@
         <v>208</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5276,10 +5285,10 @@
         <v>206</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>71</v>
@@ -5293,7 +5302,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5316,13 +5325,13 @@
         <v>71</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5373,7 +5382,7 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>72</v>
@@ -5393,7 +5402,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5401,7 +5410,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>73</v>
@@ -5416,13 +5425,13 @@
         <v>71</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5473,10 +5482,10 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>73</v>
@@ -5493,7 +5502,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5501,7 +5510,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>73</v>
@@ -5516,13 +5525,13 @@
         <v>71</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>92</v>
+        <v>218</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5573,10 +5582,10 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
@@ -5593,7 +5602,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5616,13 +5625,13 @@
         <v>71</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>220</v>
+        <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5673,7 +5682,7 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
@@ -5916,13 +5925,13 @@
         <v>71</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -5993,7 +6002,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6016,13 +6025,13 @@
         <v>71</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6073,7 +6082,7 @@
         <v>71</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>72</v>
@@ -6093,7 +6102,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6104,7 +6113,7 @@
         <v>72</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>71</v>
@@ -6116,13 +6125,13 @@
         <v>71</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6173,13 +6182,13 @@
         <v>71</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>71</v>
@@ -6188,6 +6197,106 @@
         <v>71</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="240">
   <si>
     <t>Property</t>
   </si>
@@ -505,6 +505,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.executionPeriod</t>
+  </si>
+  <si>
+    <t>Period in which the caregiver executes the treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.executionPeriod</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.toBePerformedAfter</t>
@@ -1051,7 +1060,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ52"/>
+  <dimension ref="A1:AJ53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3827,7 +3836,7 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>162</v>
@@ -3912,7 +3921,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>76</v>
@@ -3927,7 +3936,7 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>165</v>
@@ -3987,7 +3996,7 @@
         <v>166</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4027,7 +4036,7 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>168</v>
@@ -4112,7 +4121,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>76</v>
@@ -4187,7 +4196,7 @@
         <v>172</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -4227,13 +4236,13 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K32" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="L32" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4284,7 +4293,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -4304,7 +4313,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4327,7 +4336,7 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>178</v>
@@ -4360,29 +4369,31 @@
         <v>71</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="X33" s="2"/>
-      <c r="Y33" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -4402,7 +4413,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4425,13 +4436,13 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4458,13 +4469,11 @@
         <v>71</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>71</v>
@@ -4713,7 +4722,7 @@
         <v>72</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>71</v>
@@ -4725,7 +4734,7 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>192</v>
@@ -4788,7 +4797,7 @@
         <v>72</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>71</v>
@@ -4813,7 +4822,7 @@
         <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>71</v>
@@ -4825,7 +4834,7 @@
         <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>195</v>
@@ -4888,7 +4897,7 @@
         <v>72</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>71</v>
@@ -5013,7 +5022,7 @@
         <v>72</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>71</v>
@@ -5025,7 +5034,7 @@
         <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>201</v>
@@ -5088,7 +5097,7 @@
         <v>72</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>71</v>
@@ -5110,10 +5119,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>71</v>
@@ -5125,7 +5134,7 @@
         <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>204</v>
@@ -5185,10 +5194,10 @@
         <v>205</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>71</v>
@@ -5225,13 +5234,13 @@
         <v>71</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K42" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="L42" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5282,7 +5291,7 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -5310,10 +5319,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>71</v>
@@ -5331,7 +5340,7 @@
         <v>211</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5385,10 +5394,10 @@
         <v>209</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>71</v>
@@ -5402,7 +5411,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5425,13 +5434,13 @@
         <v>71</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5482,7 +5491,7 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
@@ -5502,7 +5511,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5510,7 +5519,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>73</v>
@@ -5525,13 +5534,13 @@
         <v>71</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5582,10 +5591,10 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
@@ -5602,7 +5611,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5610,7 +5619,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>73</v>
@@ -5625,13 +5634,13 @@
         <v>71</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>221</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5682,10 +5691,10 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
@@ -5702,7 +5711,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5725,13 +5734,13 @@
         <v>71</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>223</v>
+        <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5782,7 +5791,7 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
@@ -6025,13 +6034,13 @@
         <v>71</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>126</v>
+        <v>232</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6102,7 +6111,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6128,10 +6137,10 @@
         <v>126</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6182,7 +6191,7 @@
         <v>71</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>72</v>
@@ -6202,7 +6211,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6213,7 +6222,7 @@
         <v>72</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>71</v>
@@ -6225,13 +6234,13 @@
         <v>71</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6282,13 +6291,13 @@
         <v>71</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>71</v>
@@ -6297,6 +6306,106 @@
         <v>71</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -4121,7 +4121,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>76</v>
@@ -4196,7 +4196,7 @@
         <v>172</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -4321,7 +4321,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>76</v>
@@ -4396,7 +4396,7 @@
         <v>179</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -4421,7 +4421,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>76</v>
@@ -4494,7 +4494,7 @@
         <v>184</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="243">
   <si>
     <t>Property</t>
   </si>
@@ -388,101 +388,92 @@
     <t>BeReferralPrescription.pssRejectionReason</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.requisition</t>
+    <t>BeDiagnosticImagingPrescription.groupIdentifier</t>
   </si>
   <si>
     <t>An identifier for the bundle this prescription belongs to.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.requisition</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.requistionType</t>
+    <t>BeReferralPrescription.groupIdentifier</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>The original request or prescription triggered this prescription</t>
+  </si>
+  <si>
+    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Period of validity of prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>When this prescription is executed, available after start of execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>The latest moment to end this treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status before</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer</t>
+  </si>
+  <si>
+    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.performer</t>
+  </si>
+  <si>
+    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.performer</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.discipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>The type of bundle can be indicated in the type of the identifier</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.requistionType</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>The original request or prescription triggered this prescription</t>
-  </si>
-  <si>
-    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Period of validity of prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>When this prescription is executed, available after start of execution</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>The latest moment to end this treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>The prescription must have left the draft status before</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
     <t>The required discipline of the provider party</t>
   </si>
   <si>
@@ -516,13 +507,22 @@
     <t>BeReferralPrescription.intendedPerformer.executionPeriod</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.toBePerformedAfter</t>
-  </si>
-  <si>
-    <t>The current prescription should be performed after this one</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.toBePerformedAfter</t>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.status</t>
+  </si>
+  <si>
+    <t>Status of the action executed by the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.status</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.statusReason</t>
+  </si>
+  <si>
+    <t>The reason of the status of the action executed by the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.statusReason</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.serviceRequested</t>
@@ -532,6 +532,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.serviceRequestedDetail</t>
+  </si>
+  <si>
+    <t>More detailed specification of the prescribed act</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.serviceRequestedDetail</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.problemCode</t>
@@ -643,13 +652,13 @@
     <t>BeReferralPrescription.note</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.intent</t>
+    <t>BeDiagnosticImagingPrescription.prescriptionType</t>
   </si>
   <si>
     <t>Proposal, Prolongation, Prescription</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intent</t>
+    <t>BeReferralPrescription.prescriptionType</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.BeReferralPrescription</t>
@@ -1060,7 +1069,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ53"/>
+  <dimension ref="A1:AJ54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2726,7 +2735,7 @@
         <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>71</v>
@@ -2738,12 +2747,14 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2799,7 +2810,7 @@
         <v>72</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>71</v>
@@ -2821,10 +2832,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>71</v>
@@ -2836,10 +2847,10 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>131</v>
@@ -2896,10 +2907,10 @@
         <v>132</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>71</v>
@@ -2921,7 +2932,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>76</v>
@@ -2936,13 +2947,13 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="L19" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2993,10 +3004,10 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3013,7 +3024,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3036,13 +3047,13 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3093,7 +3104,7 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
@@ -3113,7 +3124,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3139,10 +3150,10 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3193,7 +3204,7 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
@@ -3213,7 +3224,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3221,10 +3232,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>71</v>
@@ -3236,13 +3247,13 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3293,13 +3304,13 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>71</v>
@@ -3313,7 +3324,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3321,10 +3332,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>71</v>
@@ -3336,13 +3347,13 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3393,13 +3404,13 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>71</v>
@@ -3413,7 +3424,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3421,7 +3432,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>76</v>
@@ -3436,7 +3447,7 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>150</v>
@@ -3496,7 +3507,7 @@
         <v>151</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3521,7 +3532,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>76</v>
@@ -3536,7 +3547,7 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>153</v>
@@ -3596,7 +3607,7 @@
         <v>154</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3636,7 +3647,7 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>156</v>
@@ -3736,7 +3747,7 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>159</v>
@@ -3836,7 +3847,7 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>162</v>
@@ -3936,7 +3947,7 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>165</v>
@@ -4036,7 +4047,7 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>168</v>
@@ -4136,7 +4147,7 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>171</v>
@@ -4321,7 +4332,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>76</v>
@@ -4336,13 +4347,13 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K33" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="L33" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4393,10 +4404,10 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -4413,7 +4424,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4436,7 +4447,7 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>181</v>
@@ -4469,29 +4480,31 @@
         <v>71</v>
       </c>
       <c r="W34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="X34" s="2"/>
-      <c r="Y34" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -4511,7 +4524,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4519,7 +4532,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>76</v>
@@ -4534,13 +4547,13 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4567,13 +4580,11 @@
         <v>71</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>71</v>
@@ -4594,7 +4605,7 @@
         <v>187</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -4634,7 +4645,7 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>189</v>
@@ -4734,7 +4745,7 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>192</v>
@@ -4822,7 +4833,7 @@
         <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>71</v>
@@ -4834,7 +4845,7 @@
         <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>195</v>
@@ -4897,7 +4908,7 @@
         <v>72</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>71</v>
@@ -4922,7 +4933,7 @@
         <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>71</v>
@@ -4934,7 +4945,7 @@
         <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>198</v>
@@ -4997,7 +5008,7 @@
         <v>72</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>71</v>
@@ -5034,7 +5045,7 @@
         <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>201</v>
@@ -5122,7 +5133,7 @@
         <v>72</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>71</v>
@@ -5134,7 +5145,7 @@
         <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>204</v>
@@ -5197,7 +5208,7 @@
         <v>72</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>71</v>
@@ -5219,10 +5230,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>71</v>
@@ -5234,7 +5245,7 @@
         <v>71</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>207</v>
@@ -5294,10 +5305,10 @@
         <v>208</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>71</v>
@@ -5334,13 +5345,13 @@
         <v>71</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="L43" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5391,7 +5402,7 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -5419,10 +5430,10 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>71</v>
@@ -5440,7 +5451,7 @@
         <v>214</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5494,10 +5505,10 @@
         <v>212</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>71</v>
@@ -5511,7 +5522,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5534,13 +5545,13 @@
         <v>71</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5591,7 +5602,7 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>72</v>
@@ -5611,7 +5622,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5619,7 +5630,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>73</v>
@@ -5634,13 +5645,13 @@
         <v>71</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5691,10 +5702,10 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
@@ -5711,7 +5722,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5719,7 +5730,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>73</v>
@@ -5734,13 +5745,13 @@
         <v>71</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>92</v>
+        <v>224</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5791,10 +5802,10 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
@@ -5811,7 +5822,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5834,13 +5845,13 @@
         <v>71</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>226</v>
+        <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -5891,7 +5902,7 @@
         <v>71</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
@@ -6134,13 +6145,13 @@
         <v>71</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6211,7 +6222,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6234,13 +6245,13 @@
         <v>71</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6291,7 +6302,7 @@
         <v>71</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>72</v>
@@ -6311,7 +6322,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6322,7 +6333,7 @@
         <v>72</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>71</v>
@@ -6334,13 +6345,13 @@
         <v>71</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6391,13 +6402,13 @@
         <v>71</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>71</v>
@@ -6406,6 +6417,106 @@
         <v>71</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="262">
   <si>
     <t>Property</t>
   </si>
@@ -237,13 +237,76 @@
     <t>*</t>
   </si>
   <si>
-    <t>Base</t>
+    <t>Base for all elements</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">dateTime
@@ -1069,7 +1132,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ54"/>
+  <dimension ref="A1:AJ56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1080,7 +1143,7 @@
   <cols>
     <col min="1" max="1" width="77.13671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -1105,7 +1168,7 @@
     <col min="25" max="25" width="39.53515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="77.13671875" customWidth="true" bestFit="true" hidden="true"/>
@@ -1253,7 +1316,9 @@
       <c r="J2" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="L2" t="s" s="2">
         <v>21</v>
       </c>
@@ -1306,7 +1371,7 @@
         <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>72</v>
@@ -1315,18 +1380,18 @@
         <v>73</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1334,10 +1399,10 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>71</v>
@@ -1349,13 +1414,13 @@
         <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1406,13 +1471,13 @@
         <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>71</v>
@@ -1421,23 +1486,23 @@
         <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>71</v>
@@ -1449,15 +1514,17 @@
         <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>71</v>
@@ -1494,39 +1561,39 @@
         <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1534,10 +1601,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -1549,13 +1616,13 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1606,13 +1673,13 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>71</v>
@@ -1626,7 +1693,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1634,10 +1701,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>71</v>
@@ -1649,13 +1716,13 @@
         <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1706,13 +1773,13 @@
         <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>71</v>
@@ -1726,7 +1793,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1734,10 +1801,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>71</v>
@@ -1749,13 +1816,13 @@
         <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1806,13 +1873,13 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>71</v>
@@ -1826,7 +1893,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1834,10 +1901,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>71</v>
@@ -1849,13 +1916,13 @@
         <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1906,13 +1973,13 @@
         <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>71</v>
@@ -1926,7 +1993,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1934,10 +2001,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>71</v>
@@ -1949,13 +2016,13 @@
         <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2006,13 +2073,13 @@
         <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>71</v>
@@ -2026,7 +2093,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2037,7 +2104,7 @@
         <v>72</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>71</v>
@@ -2049,13 +2116,13 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2106,13 +2173,13 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>71</v>
@@ -2126,7 +2193,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2134,10 +2201,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>71</v>
@@ -2149,13 +2216,13 @@
         <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2206,13 +2273,13 @@
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>71</v>
@@ -2226,7 +2293,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2234,10 +2301,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>71</v>
@@ -2249,13 +2316,13 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2306,13 +2373,13 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>71</v>
@@ -2326,7 +2393,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2334,10 +2401,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>71</v>
@@ -2349,13 +2416,13 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2406,13 +2473,13 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>71</v>
@@ -2426,7 +2493,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2434,10 +2501,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>71</v>
@@ -2449,13 +2516,13 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2506,13 +2573,13 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>71</v>
@@ -2526,7 +2593,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2534,10 +2601,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -2549,13 +2616,13 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2606,13 +2673,13 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>71</v>
@@ -2626,7 +2693,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2637,7 +2704,7 @@
         <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>71</v>
@@ -2649,12 +2716,14 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="L16" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2704,13 +2773,13 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>71</v>
@@ -2724,7 +2793,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2735,7 +2804,7 @@
         <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>71</v>
@@ -2747,13 +2816,13 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2804,13 +2873,13 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>71</v>
@@ -2824,7 +2893,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2832,10 +2901,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>71</v>
@@ -2847,14 +2916,12 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2904,13 +2971,13 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>71</v>
@@ -2924,7 +2991,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2935,7 +3002,7 @@
         <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>71</v>
@@ -2947,13 +3014,13 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3004,13 +3071,13 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>71</v>
@@ -3024,7 +3091,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3032,10 +3099,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>71</v>
@@ -3047,13 +3114,13 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3104,13 +3171,13 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>71</v>
@@ -3124,7 +3191,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3135,7 +3202,7 @@
         <v>72</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>71</v>
@@ -3147,13 +3214,13 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3204,13 +3271,13 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>71</v>
@@ -3224,7 +3291,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3232,10 +3299,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>71</v>
@@ -3247,13 +3314,13 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3304,13 +3371,13 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>71</v>
@@ -3324,7 +3391,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3335,7 +3402,7 @@
         <v>72</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>71</v>
@@ -3347,13 +3414,13 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3404,13 +3471,13 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>71</v>
@@ -3424,7 +3491,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3432,10 +3499,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>71</v>
@@ -3447,13 +3514,13 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3504,13 +3571,13 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>71</v>
@@ -3524,7 +3591,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3535,7 +3602,7 @@
         <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>71</v>
@@ -3547,13 +3614,13 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3604,13 +3671,13 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>71</v>
@@ -3624,7 +3691,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3632,10 +3699,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>71</v>
@@ -3647,13 +3714,13 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3704,13 +3771,13 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>71</v>
@@ -3724,7 +3791,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3735,7 +3802,7 @@
         <v>72</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>71</v>
@@ -3747,13 +3814,13 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3804,13 +3871,13 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>71</v>
@@ -3824,7 +3891,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3835,7 +3902,7 @@
         <v>72</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>71</v>
@@ -3847,13 +3914,13 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3904,13 +3971,13 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>71</v>
@@ -3924,7 +3991,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3935,7 +4002,7 @@
         <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>71</v>
@@ -3950,10 +4017,10 @@
         <v>149</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4004,13 +4071,13 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>71</v>
@@ -4024,7 +4091,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4032,10 +4099,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>71</v>
@@ -4047,13 +4114,13 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4104,13 +4171,13 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>71</v>
@@ -4124,7 +4191,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4135,7 +4202,7 @@
         <v>72</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>71</v>
@@ -4147,13 +4214,13 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4204,13 +4271,13 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>71</v>
@@ -4224,7 +4291,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4232,10 +4299,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>71</v>
@@ -4247,13 +4314,13 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4304,13 +4371,13 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>71</v>
@@ -4324,7 +4391,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4335,7 +4402,7 @@
         <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>71</v>
@@ -4347,13 +4414,13 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4404,13 +4471,13 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>71</v>
@@ -4424,7 +4491,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4432,10 +4499,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>71</v>
@@ -4447,13 +4514,13 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4504,13 +4571,13 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>71</v>
@@ -4524,7 +4591,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4532,10 +4599,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>71</v>
@@ -4547,13 +4614,13 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4580,11 +4647,13 @@
         <v>71</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>71</v>
@@ -4602,13 +4671,13 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>71</v>
@@ -4622,7 +4691,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4630,10 +4699,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>71</v>
@@ -4645,13 +4714,13 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4702,13 +4771,13 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>71</v>
@@ -4722,7 +4791,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4730,10 +4799,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>71</v>
@@ -4745,13 +4814,13 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4778,13 +4847,11 @@
         <v>71</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>71</v>
@@ -4802,13 +4869,13 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>71</v>
@@ -4822,7 +4889,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4833,7 +4900,7 @@
         <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>71</v>
@@ -4845,13 +4912,13 @@
         <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4902,13 +4969,13 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>71</v>
@@ -4922,7 +4989,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4933,7 +5000,7 @@
         <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>71</v>
@@ -4945,13 +5012,13 @@
         <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5002,13 +5069,13 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>71</v>
@@ -5022,7 +5089,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5033,7 +5100,7 @@
         <v>72</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>71</v>
@@ -5045,13 +5112,13 @@
         <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5102,13 +5169,13 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>71</v>
@@ -5122,7 +5189,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5133,7 +5200,7 @@
         <v>72</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>71</v>
@@ -5145,13 +5212,13 @@
         <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5202,13 +5269,13 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>71</v>
@@ -5222,7 +5289,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5233,7 +5300,7 @@
         <v>72</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>71</v>
@@ -5245,13 +5312,13 @@
         <v>71</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5302,13 +5369,13 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>71</v>
@@ -5322,7 +5389,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5330,10 +5397,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>71</v>
@@ -5345,13 +5412,13 @@
         <v>71</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5402,13 +5469,13 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>71</v>
@@ -5422,7 +5489,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5430,10 +5497,10 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>71</v>
@@ -5445,13 +5512,13 @@
         <v>71</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5502,13 +5569,13 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>71</v>
@@ -5522,7 +5589,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5530,10 +5597,10 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>71</v>
@@ -5545,13 +5612,13 @@
         <v>71</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5602,13 +5669,13 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>71</v>
@@ -5622,7 +5689,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5630,10 +5697,10 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>71</v>
@@ -5645,13 +5712,13 @@
         <v>71</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5702,13 +5769,13 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>71</v>
@@ -5722,7 +5789,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5730,7 +5797,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>73</v>
@@ -5745,13 +5812,13 @@
         <v>71</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5802,10 +5869,10 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
@@ -5822,7 +5889,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5845,13 +5912,13 @@
         <v>71</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>92</v>
+        <v>239</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -5902,7 +5969,7 @@
         <v>71</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
@@ -5922,7 +5989,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -5930,7 +5997,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>73</v>
@@ -5945,13 +6012,13 @@
         <v>71</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6002,10 +6069,10 @@
         <v>71</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
@@ -6022,7 +6089,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6045,7 +6112,7 @@
         <v>71</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>232</v>
+        <v>111</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>233</v>
@@ -6102,7 +6169,7 @@
         <v>71</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>72</v>
@@ -6122,7 +6189,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6145,13 +6212,13 @@
         <v>71</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6202,7 +6269,7 @@
         <v>71</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>72</v>
@@ -6222,7 +6289,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6245,13 +6312,13 @@
         <v>71</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>149</v>
+        <v>251</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6302,7 +6369,7 @@
         <v>71</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>72</v>
@@ -6322,7 +6389,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6345,13 +6412,13 @@
         <v>71</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6402,7 +6469,7 @@
         <v>71</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>72</v>
@@ -6422,7 +6489,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6433,7 +6500,7 @@
         <v>72</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>71</v>
@@ -6445,13 +6512,13 @@
         <v>71</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6502,13 +6569,13 @@
         <v>71</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>71</v>
@@ -6517,6 +6584,206 @@
         <v>71</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="282">
   <si>
     <t>Property</t>
   </si>
@@ -367,6 +367,42 @@
     <t>BeReferralPrescription.co-prescriber</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.co-prescriber.id</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.co-prescriber.extension</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.co-prescriber.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>BeDiagnosticImagingPrescription.co-prescriber.co-prescriber</t>
   </si>
   <si>
@@ -521,6 +557,15 @@
     <t>BeReferralPrescription.intendedPerformer</t>
   </si>
   <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.id</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.extension</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.modifierExtension</t>
+  </si>
+  <si>
     <t>BeDiagnosticImagingPrescription.intendedPerformer.performer</t>
   </si>
   <si>
@@ -688,6 +733,15 @@
     <t>BeReferralPrescription.bodyLocation</t>
   </si>
   <si>
+    <t>BeDiagnosticImagingPrescription.bodyLocation.id</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.bodyLocation.extension</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.bodyLocation.modifierExtension</t>
+  </si>
+  <si>
     <t>BeDiagnosticImagingPrescription.bodyLocation.bodySite</t>
   </si>
   <si>
@@ -774,6 +828,15 @@
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.supportingInformation[x]</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.supportingInformation[x].id</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.supportingInformation[x].extension</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.supportingInformation[x].modifierExtension</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.supportingInformation[x].questionnaireResponse</t>
@@ -1132,7 +1195,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ56"/>
+  <dimension ref="A1:AJ68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1143,7 +1206,7 @@
   <cols>
     <col min="1" max="1" width="77.13671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -2085,7 +2148,7 @@
         <v>71</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>71</v>
@@ -2093,7 +2156,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2116,13 +2179,13 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2173,7 +2236,7 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>72</v>
@@ -2188,23 +2251,23 @@
         <v>71</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>71</v>
@@ -2216,15 +2279,17 @@
         <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>71</v>
@@ -2261,71 +2326,75 @@
         <v>71</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AC11" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>71</v>
       </c>
@@ -2379,21 +2448,21 @@
         <v>72</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>71</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2401,7 +2470,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>79</v>
@@ -2416,13 +2485,13 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2473,10 +2542,10 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -2493,7 +2562,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2516,13 +2585,13 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2573,7 +2642,7 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
@@ -2593,7 +2662,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2601,7 +2670,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>79</v>
@@ -2616,13 +2685,13 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2673,10 +2742,10 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -2693,7 +2762,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2701,7 +2770,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>79</v>
@@ -2716,13 +2785,13 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2773,10 +2842,10 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -2793,7 +2862,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2801,7 +2870,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>79</v>
@@ -2816,7 +2885,7 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>139</v>
@@ -2876,7 +2945,7 @@
         <v>140</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -2901,7 +2970,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>79</v>
@@ -2916,12 +2985,14 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="L18" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2971,10 +3042,10 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -2991,7 +3062,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3002,7 +3073,7 @@
         <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>71</v>
@@ -3014,10 +3085,10 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>146</v>
@@ -3077,7 +3148,7 @@
         <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>71</v>
@@ -3099,7 +3170,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>79</v>
@@ -3174,7 +3245,7 @@
         <v>151</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3214,14 +3285,12 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3302,7 +3371,7 @@
         <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>71</v>
@@ -3314,13 +3383,13 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>156</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3371,13 +3440,13 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>71</v>
@@ -3391,7 +3460,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3399,7 +3468,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>79</v>
@@ -3414,13 +3483,13 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3471,10 +3540,10 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -3491,7 +3560,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3499,10 +3568,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>71</v>
@@ -3514,13 +3583,13 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3571,13 +3640,13 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>71</v>
@@ -3591,7 +3660,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3614,13 +3683,13 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3671,7 +3740,7 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -3691,7 +3760,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3699,7 +3768,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>79</v>
@@ -3714,13 +3783,13 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3771,10 +3840,10 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -3791,7 +3860,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3799,10 +3868,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>71</v>
@@ -3814,13 +3883,13 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3871,19 +3940,19 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>71</v>
@@ -3891,7 +3960,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3914,13 +3983,13 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3971,7 +4040,7 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
@@ -3986,23 +4055,23 @@
         <v>71</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>71</v>
@@ -4014,15 +4083,17 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>71</v>
@@ -4059,71 +4130,75 @@
         <v>71</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>71</v>
       </c>
@@ -4171,27 +4246,27 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>71</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4214,13 +4289,13 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4271,7 +4346,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -4291,7 +4366,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4314,13 +4389,13 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4371,7 +4446,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -4391,7 +4466,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4414,13 +4489,13 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4471,7 +4546,7 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -4491,7 +4566,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4517,10 +4592,10 @@
         <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4571,7 +4646,7 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
@@ -4591,7 +4666,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4614,13 +4689,13 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4671,7 +4746,7 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
@@ -4691,7 +4766,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4699,7 +4774,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>79</v>
@@ -4714,13 +4789,13 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4771,10 +4846,10 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -4791,7 +4866,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4799,7 +4874,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>79</v>
@@ -4814,13 +4889,13 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4847,11 +4922,13 @@
         <v>71</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>71</v>
@@ -4869,10 +4946,10 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -4889,7 +4966,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4897,7 +4974,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>79</v>
@@ -4912,13 +4989,13 @@
         <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4969,10 +5046,10 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -4989,7 +5066,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5012,13 +5089,13 @@
         <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5069,7 +5146,7 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
@@ -5089,7 +5166,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5112,13 +5189,13 @@
         <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5169,7 +5246,7 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
@@ -5189,7 +5266,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5200,7 +5277,7 @@
         <v>72</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>71</v>
@@ -5212,13 +5289,13 @@
         <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5269,13 +5346,13 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>71</v>
@@ -5289,7 +5366,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5297,7 +5374,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>79</v>
@@ -5312,13 +5389,13 @@
         <v>71</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5369,10 +5446,10 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -5389,7 +5466,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5397,7 +5474,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>79</v>
@@ -5412,13 +5489,13 @@
         <v>71</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5445,13 +5522,11 @@
         <v>71</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>71</v>
@@ -5469,10 +5544,10 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -5489,7 +5564,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5500,7 +5575,7 @@
         <v>72</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>71</v>
@@ -5512,13 +5587,13 @@
         <v>71</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5569,13 +5644,13 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>71</v>
@@ -5589,7 +5664,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5597,7 +5672,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>79</v>
@@ -5612,13 +5687,13 @@
         <v>71</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5669,10 +5744,10 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -5689,7 +5764,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5697,7 +5772,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>79</v>
@@ -5712,13 +5787,13 @@
         <v>71</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5769,10 +5844,10 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -5789,7 +5864,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5812,13 +5887,13 @@
         <v>71</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>235</v>
+        <v>111</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5869,7 +5944,7 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
@@ -5881,7 +5956,7 @@
         <v>71</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>71</v>
@@ -5889,7 +5964,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5900,7 +5975,7 @@
         <v>72</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>71</v>
@@ -5912,13 +5987,13 @@
         <v>71</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -5969,13 +6044,13 @@
         <v>71</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>238</v>
+        <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>71</v>
@@ -5984,20 +6059,20 @@
         <v>71</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>73</v>
@@ -6012,15 +6087,17 @@
         <v>71</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>243</v>
+        <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>71</v>
@@ -6057,22 +6134,22 @@
         <v>71</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
@@ -6081,19 +6158,19 @@
         <v>71</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6106,22 +6183,26 @@
         <v>71</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>233</v>
+        <v>120</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>71</v>
       </c>
@@ -6169,7 +6250,7 @@
         <v>71</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>246</v>
+        <v>123</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>72</v>
@@ -6181,15 +6262,15 @@
         <v>71</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>71</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6200,7 +6281,7 @@
         <v>72</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>71</v>
@@ -6212,13 +6293,13 @@
         <v>71</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>248</v>
+        <v>182</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6269,13 +6350,13 @@
         <v>71</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>71</v>
@@ -6289,7 +6370,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6300,7 +6381,7 @@
         <v>72</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>71</v>
@@ -6312,13 +6393,13 @@
         <v>71</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>251</v>
+        <v>182</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6369,13 +6450,13 @@
         <v>71</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>71</v>
@@ -6389,7 +6470,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6412,13 +6493,13 @@
         <v>71</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6469,7 +6550,7 @@
         <v>71</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>72</v>
@@ -6489,7 +6570,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6497,10 +6578,10 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>71</v>
@@ -6512,13 +6593,13 @@
         <v>71</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6569,13 +6650,13 @@
         <v>71</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>71</v>
@@ -6589,7 +6670,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6597,10 +6678,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>71</v>
@@ -6612,13 +6693,13 @@
         <v>71</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -6669,13 +6750,13 @@
         <v>71</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>71</v>
@@ -6689,7 +6770,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6700,7 +6781,7 @@
         <v>72</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>71</v>
@@ -6712,13 +6793,13 @@
         <v>71</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -6769,21 +6850,1227 @@
         <v>71</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J58" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AF56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
+      <c r="K58" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="284">
   <si>
     <t>Property</t>
   </si>
@@ -238,6 +238,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Base for all elements</t>
@@ -1386,10 +1390,10 @@
         <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>21</v>
@@ -1443,7 +1447,7 @@
         <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>73</v>
@@ -1452,21 +1456,21 @@
         <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1477,7 +1481,7 @@
         <v>73</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>72</v>
@@ -1489,13 +1493,13 @@
         <v>72</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1546,13 +1550,13 @@
         <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>72</v>
@@ -1561,19 +1565,19 @@
         <v>72</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1592,16 +1596,16 @@
         <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1639,19 +1643,19 @@
         <v>72</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>73</v>
@@ -1663,18 +1667,18 @@
         <v>72</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1682,10 +1686,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>72</v>
@@ -1697,13 +1701,13 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1754,13 +1758,13 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>72</v>
@@ -1774,10 +1778,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1785,10 +1789,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>72</v>
@@ -1800,13 +1804,13 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1857,13 +1861,13 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>72</v>
@@ -1877,10 +1881,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1888,10 +1892,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>72</v>
@@ -1903,13 +1907,13 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1960,13 +1964,13 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>72</v>
@@ -1980,10 +1984,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1991,10 +1995,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>72</v>
@@ -2006,13 +2010,13 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2063,13 +2067,13 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>72</v>
@@ -2083,10 +2087,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2109,13 +2113,13 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2166,7 +2170,7 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>73</v>
@@ -2178,7 +2182,7 @@
         <v>72</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>72</v>
@@ -2186,10 +2190,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2200,7 +2204,7 @@
         <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>72</v>
@@ -2212,13 +2216,13 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2269,13 +2273,13 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>72</v>
@@ -2284,19 +2288,19 @@
         <v>72</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2315,16 +2319,16 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2362,19 +2366,19 @@
         <v>72</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>73</v>
@@ -2386,22 +2390,22 @@
         <v>72</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2414,25 +2418,25 @@
         <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>72</v>
@@ -2481,7 +2485,7 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>73</v>
@@ -2493,18 +2497,18 @@
         <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2515,7 +2519,7 @@
         <v>73</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>72</v>
@@ -2527,13 +2531,13 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2584,13 +2588,13 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>72</v>
@@ -2604,10 +2608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2615,10 +2619,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>72</v>
@@ -2630,13 +2634,13 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2687,13 +2691,13 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>72</v>
@@ -2707,10 +2711,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2721,7 +2725,7 @@
         <v>73</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>72</v>
@@ -2733,13 +2737,13 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2790,13 +2794,13 @@
         <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>72</v>
@@ -2810,10 +2814,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2821,10 +2825,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>72</v>
@@ -2836,13 +2840,13 @@
         <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2893,13 +2897,13 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>72</v>
@@ -2913,10 +2917,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2924,10 +2928,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>72</v>
@@ -2939,13 +2943,13 @@
         <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2996,13 +3000,13 @@
         <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>72</v>
@@ -3016,10 +3020,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3027,10 +3031,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>72</v>
@@ -3042,13 +3046,13 @@
         <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3099,13 +3103,13 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>72</v>
@@ -3119,10 +3123,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3133,7 +3137,7 @@
         <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>72</v>
@@ -3145,13 +3149,13 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3202,13 +3206,13 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>72</v>
@@ -3222,10 +3226,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3236,7 +3240,7 @@
         <v>73</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>72</v>
@@ -3248,13 +3252,13 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3305,13 +3309,13 @@
         <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>72</v>
@@ -3325,10 +3329,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3339,7 +3343,7 @@
         <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>72</v>
@@ -3351,10 +3355,10 @@
         <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3406,13 +3410,13 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>72</v>
@@ -3426,10 +3430,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3452,13 +3456,13 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3509,7 +3513,7 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -3529,10 +3533,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3540,10 +3544,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>72</v>
@@ -3555,13 +3559,13 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3612,13 +3616,13 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>72</v>
@@ -3632,10 +3636,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3646,7 +3650,7 @@
         <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>72</v>
@@ -3658,13 +3662,13 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3715,13 +3719,13 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>72</v>
@@ -3735,10 +3739,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3749,7 +3753,7 @@
         <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>72</v>
@@ -3761,13 +3765,13 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3818,13 +3822,13 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>72</v>
@@ -3838,10 +3842,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3852,7 +3856,7 @@
         <v>73</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>72</v>
@@ -3864,13 +3868,13 @@
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3921,13 +3925,13 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>72</v>
@@ -3941,10 +3945,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3952,7 +3956,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>74</v>
@@ -3967,13 +3971,13 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4024,10 +4028,10 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
@@ -4036,7 +4040,7 @@
         <v>72</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>72</v>
@@ -4044,10 +4048,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4058,7 +4062,7 @@
         <v>73</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>72</v>
@@ -4070,13 +4074,13 @@
         <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4127,13 +4131,13 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>72</v>
@@ -4142,19 +4146,19 @@
         <v>72</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4173,16 +4177,16 @@
         <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4220,19 +4224,19 @@
         <v>72</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
@@ -4244,22 +4248,22 @@
         <v>72</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4272,25 +4276,25 @@
         <v>72</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>72</v>
@@ -4339,7 +4343,7 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -4351,18 +4355,18 @@
         <v>72</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4373,7 +4377,7 @@
         <v>73</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>72</v>
@@ -4385,13 +4389,13 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4442,13 +4446,13 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>72</v>
@@ -4462,10 +4466,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4473,10 +4477,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>72</v>
@@ -4488,13 +4492,13 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4545,13 +4549,13 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>72</v>
@@ -4565,10 +4569,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4579,7 +4583,7 @@
         <v>73</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>72</v>
@@ -4591,13 +4595,13 @@
         <v>72</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4648,13 +4652,13 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>72</v>
@@ -4668,10 +4672,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4682,7 +4686,7 @@
         <v>73</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>72</v>
@@ -4694,13 +4698,13 @@
         <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4751,13 +4755,13 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>72</v>
@@ -4771,10 +4775,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4785,7 +4789,7 @@
         <v>73</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>72</v>
@@ -4797,13 +4801,13 @@
         <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4854,13 +4858,13 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>72</v>
@@ -4874,10 +4878,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4888,7 +4892,7 @@
         <v>73</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>72</v>
@@ -4900,13 +4904,13 @@
         <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4957,13 +4961,13 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>72</v>
@@ -4977,10 +4981,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4991,7 +4995,7 @@
         <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>72</v>
@@ -5003,13 +5007,13 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5060,13 +5064,13 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>72</v>
@@ -5080,10 +5084,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5091,10 +5095,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>72</v>
@@ -5106,13 +5110,13 @@
         <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5163,13 +5167,13 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>72</v>
@@ -5183,10 +5187,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5197,7 +5201,7 @@
         <v>73</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>72</v>
@@ -5209,13 +5213,13 @@
         <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5266,13 +5270,13 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>72</v>
@@ -5286,10 +5290,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5300,7 +5304,7 @@
         <v>73</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>72</v>
@@ -5312,13 +5316,13 @@
         <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5369,13 +5373,13 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>72</v>
@@ -5389,10 +5393,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5403,7 +5407,7 @@
         <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>72</v>
@@ -5415,13 +5419,13 @@
         <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5472,13 +5476,13 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>72</v>
@@ -5492,10 +5496,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5503,10 +5507,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>72</v>
@@ -5518,13 +5522,13 @@
         <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5575,13 +5579,13 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>72</v>
@@ -5595,10 +5599,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5606,10 +5610,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>72</v>
@@ -5621,13 +5625,13 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5654,11 +5658,11 @@
         <v>72</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>72</v>
@@ -5676,13 +5680,13 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>72</v>
@@ -5696,10 +5700,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5710,7 +5714,7 @@
         <v>73</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>72</v>
@@ -5722,13 +5726,13 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5779,13 +5783,13 @@
         <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>72</v>
@@ -5799,10 +5803,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5813,7 +5817,7 @@
         <v>73</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>72</v>
@@ -5825,13 +5829,13 @@
         <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -5882,13 +5886,13 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>72</v>
@@ -5902,10 +5906,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5916,7 +5920,7 @@
         <v>73</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>72</v>
@@ -5928,13 +5932,13 @@
         <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -5985,13 +5989,13 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>72</v>
@@ -6005,10 +6009,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6031,13 +6035,13 @@
         <v>72</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6088,7 +6092,7 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
@@ -6100,7 +6104,7 @@
         <v>72</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>72</v>
@@ -6108,10 +6112,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6122,7 +6126,7 @@
         <v>73</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>72</v>
@@ -6134,13 +6138,13 @@
         <v>72</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6191,13 +6195,13 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>72</v>
@@ -6206,19 +6210,19 @@
         <v>72</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6237,16 +6241,16 @@
         <v>72</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6284,19 +6288,19 @@
         <v>72</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
@@ -6308,22 +6312,22 @@
         <v>72</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6336,25 +6340,25 @@
         <v>72</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>72</v>
@@ -6403,7 +6407,7 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>73</v>
@@ -6415,18 +6419,18 @@
         <v>72</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6437,7 +6441,7 @@
         <v>73</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>72</v>
@@ -6449,13 +6453,13 @@
         <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6506,13 +6510,13 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>72</v>
@@ -6526,10 +6530,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6540,7 +6544,7 @@
         <v>73</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>72</v>
@@ -6552,13 +6556,13 @@
         <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6609,13 +6613,13 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>72</v>
@@ -6629,10 +6633,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6655,13 +6659,13 @@
         <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -6712,7 +6716,7 @@
         <v>72</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>73</v>
@@ -6732,10 +6736,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6743,10 +6747,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>72</v>
@@ -6758,13 +6762,13 @@
         <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6815,13 +6819,13 @@
         <v>72</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>72</v>
@@ -6835,10 +6839,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -6846,10 +6850,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>72</v>
@@ -6861,13 +6865,13 @@
         <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -6918,13 +6922,13 @@
         <v>72</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>72</v>
@@ -6938,10 +6942,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -6964,13 +6968,13 @@
         <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7021,7 +7025,7 @@
         <v>72</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>73</v>
@@ -7041,10 +7045,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7067,13 +7071,13 @@
         <v>72</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7124,7 +7128,7 @@
         <v>72</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>73</v>
@@ -7144,10 +7148,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7155,7 +7159,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>74</v>
@@ -7170,13 +7174,13 @@
         <v>72</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7227,10 +7231,10 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>74</v>
@@ -7247,10 +7251,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7273,13 +7277,13 @@
         <v>72</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7330,7 +7334,7 @@
         <v>72</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>73</v>
@@ -7342,7 +7346,7 @@
         <v>72</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>72</v>
@@ -7350,10 +7354,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7364,7 +7368,7 @@
         <v>73</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>72</v>
@@ -7376,13 +7380,13 @@
         <v>72</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -7433,13 +7437,13 @@
         <v>72</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>72</v>
@@ -7448,19 +7452,19 @@
         <v>72</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -7479,16 +7483,16 @@
         <v>72</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -7526,19 +7530,19 @@
         <v>72</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>73</v>
@@ -7550,22 +7554,22 @@
         <v>72</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -7578,25 +7582,25 @@
         <v>72</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>72</v>
@@ -7645,7 +7649,7 @@
         <v>72</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>73</v>
@@ -7657,18 +7661,18 @@
         <v>72</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -7691,13 +7695,13 @@
         <v>72</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -7748,7 +7752,7 @@
         <v>72</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>73</v>
@@ -7768,10 +7772,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7794,13 +7798,13 @@
         <v>72</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -7851,7 +7855,7 @@
         <v>72</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>73</v>
@@ -7871,10 +7875,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -7897,13 +7901,13 @@
         <v>72</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -7954,7 +7958,7 @@
         <v>72</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>73</v>
@@ -7974,10 +7978,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8000,13 +8004,13 @@
         <v>72</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8057,7 +8061,7 @@
         <v>72</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>73</v>
@@ -8077,10 +8081,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8103,13 +8107,13 @@
         <v>72</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8160,7 +8164,7 @@
         <v>72</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>73</v>
@@ -8180,10 +8184,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8194,7 +8198,7 @@
         <v>73</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>72</v>
@@ -8206,13 +8210,13 @@
         <v>72</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8263,13 +8267,13 @@
         <v>72</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>72</v>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="223">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -244,23 +244,56 @@
 </t>
   </si>
   <si>
-    <t>Base for all elements</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
+    <t>Base</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.recordedDate</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.id</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>When this prescription was created</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.recordedDate</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>The prescribing healthcare party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.prescriber</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.co-prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Information about co prescribers</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.co-prescriber.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -276,7 +309,10 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.extension</t>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.co-prescriber.extension</t>
   </si>
   <si>
     <t>extensions
@@ -313,77 +349,6 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When this prescription was created</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.recorder</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.prescriber</t>
-  </si>
-  <si>
-    <t>The prescribing healthcare party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.prescriber</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.co-prescriberNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Number of co-prescribers that must sign the prescription to activate it</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriberNumber</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.co-prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Information about co prescribers</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.co-prescriber.id</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.co-prescriber.extension</t>
-  </si>
-  <si>
     <t>BeDiagnosticImagingPrescription.co-prescriber.modifierExtension</t>
   </si>
   <si>
@@ -441,15 +406,6 @@
     <t>BeReferralPrescription.co-prescriber.status</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.co-prescriber.required</t>
-  </si>
-  <si>
-    <t>Type of mandatory for the signature of the co-prescriber (1= required: the co-prescriber SHALL sign to make the prescription valid, 2= conditionally required: the co-prescriber SHALL sign if the number of co-prescribers with a signature is lower than the number in co-prescriber number 3= optional: the signature does not affect the validity of the prescription, but is for information only</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber.required</t>
-  </si>
-  <si>
     <t>BeDiagnosticImagingPrescription.patient</t>
   </si>
   <si>
@@ -472,317 +428,182 @@
     <t>BeReferralPrescription.prescriptionNumber</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.pssNumber</t>
-  </si>
-  <si>
-    <t>An identifier for the Prescription Search Support</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.pssNumber</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.pssRejectionReason</t>
+    <t>BeDiagnosticImagingPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>The original request or prescription triggered this prescription</t>
+  </si>
+  <si>
+    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Period of validity of prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>When this prescription is executed, available after start of execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>The latest moment to end this treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedProvider.id</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedProvider.extension</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedProvider.modifierExtension</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>The required discipline of the provider party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>What is prescribed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.problemCode</t>
+  </si>
+  <si>
+    <t>The problem (code or reference) that is the main reason for this prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.problemCode</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.supportingInfo</t>
+  </si>
+  <si>
+    <t>Care Set Problem</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.supportingInfo</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.status</t>
+  </si>
+  <si>
+    <t>Current status</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.status</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.statusReason</t>
+  </si>
+  <si>
+    <t>Reason current status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.statusReason</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.bodySite</t>
+  </si>
+  <si>
+    <t>bodySite, e.g. using a SNOMED-CT code</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodySite</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.note</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
-    <t>Reason for not following the PSS suggestion</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.pssRejectionReason</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.groupIdentifier</t>
-  </si>
-  <si>
-    <t>An identifier for the bundle this prescription belongs to.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.groupIdentifier</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>The original request or prescription triggered this prescription</t>
-  </si>
-  <si>
-    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Period of validity of prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>When this prescription is executed, available after start of execution</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>The latest moment to end this treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>The prescription must have left the draft status before</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.id</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.extension</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.modifierExtension</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>The required discipline of the provider party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.period</t>
-  </si>
-  <si>
-    <t>Start and enddate for the particular provider</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.period</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.organization</t>
-  </si>
-  <si>
-    <t>Reference to an organization that will add the performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.organization</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.executionPeriod</t>
-  </si>
-  <si>
-    <t>Period in which the caregiver executes the treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.executionPeriod</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.status</t>
-  </si>
-  <si>
-    <t>Status of the action executed by the performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.status</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.statusReason</t>
-  </si>
-  <si>
-    <t>The reason of the status of the action executed by the performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.statusReason</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.serviceRequested</t>
-  </si>
-  <si>
-    <t>What is prescribed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.serviceRequested</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.serviceRequestedDetail</t>
-  </si>
-  <si>
-    <t>More detailed specification of the prescribed act</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.serviceRequestedDetail</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.problemCode</t>
-  </si>
-  <si>
-    <t>The problem (code or reference) that is the main reason for this prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.problemCode</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.supportingInfo</t>
-  </si>
-  <si>
-    <t>Care Set Problem</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.supportingInfo</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.resultReceiver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.resultReceiver</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.status</t>
-  </si>
-  <si>
-    <t>Current status</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.status</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.statusReason</t>
-  </si>
-  <si>
-    <t>Reason current status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.statusReason</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.treatmentStatus</t>
-  </si>
-  <si>
-    <t>Status of the treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentStatus</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.treatmentStatusReason</t>
-  </si>
-  <si>
-    <t>Reason treatment status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentStatusReason</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.bodyLocation</t>
-  </si>
-  <si>
-    <t>Place where the treatment should be executed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.bodyLocation.id</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.bodyLocation.extension</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.bodyLocation.modifierExtension</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.bodyLocation.bodySite</t>
-  </si>
-  <si>
-    <t>Anatomical place where the treatment should be executed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation.bodySite</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.bodyLocation.bodyLaterality</t>
-  </si>
-  <si>
-    <t>Side of the body</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.note</t>
-  </si>
-  <si>
     <t>Additional text notes about the request.</t>
   </si>
   <si>
     <t>BeReferralPrescription.note</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.prescriptionType</t>
+    <t>BeDiagnosticImagingPrescription.intent</t>
   </si>
   <si>
     <t>Proposal, Prolongation, Prescription</t>
   </si>
   <si>
-    <t>BeReferralPrescription.prescriptionType</t>
+    <t>BeReferralPrescription.intent</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.BeReferralPrescription</t>
@@ -874,12 +695,6 @@
   </si>
   <si>
     <t>If vital to this request, references may be given to previous diagnostic imaging</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.bodySite</t>
-  </si>
-  <si>
-    <t>bodySite, e.g. using a SNOMED-CT code</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.proposedInvestigation</t>
@@ -1202,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK68"/>
+  <dimension ref="A1:AK45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1392,9 +1207,7 @@
       <c r="K2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="L2" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="L2" s="2"/>
       <c r="M2" t="s" s="2">
         <v>21</v>
       </c>
@@ -1447,7 +1260,7 @@
         <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>73</v>
@@ -1456,21 +1269,21 @@
         <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1478,10 +1291,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>72</v>
@@ -1493,13 +1306,13 @@
         <v>72</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1550,13 +1363,13 @@
         <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>72</v>
@@ -1565,26 +1378,26 @@
         <v>72</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>72</v>
@@ -1596,17 +1409,15 @@
         <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
         <v>72</v>
@@ -1643,42 +1454,42 @@
         <v>72</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1686,10 +1497,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>72</v>
@@ -1701,13 +1512,13 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1758,19 +1569,19 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>72</v>
@@ -1778,10 +1589,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1789,10 +1600,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>72</v>
@@ -1804,13 +1615,13 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1861,13 +1672,13 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>72</v>
@@ -1876,26 +1687,26 @@
         <v>72</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>72</v>
@@ -1907,15 +1718,17 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
         <v>72</v>
@@ -1952,34 +1765,34 @@
         <v>72</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AG7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="AK7" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -1991,35 +1804,39 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="P8" t="s" s="2">
         <v>72</v>
       </c>
@@ -2067,30 +1884,30 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2101,7 +1918,7 @@
         <v>73</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>72</v>
@@ -2113,13 +1930,13 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2170,19 +1987,19 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>72</v>
@@ -2190,10 +2007,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2204,7 +2021,7 @@
         <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>72</v>
@@ -2216,13 +2033,13 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2273,13 +2090,13 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>72</v>
@@ -2288,26 +2105,26 @@
         <v>72</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>72</v>
@@ -2319,17 +2136,15 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>72</v>
@@ -2366,78 +2181,74 @@
         <v>72</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>72</v>
       </c>
@@ -2485,30 +2296,30 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2519,7 +2330,7 @@
         <v>73</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>72</v>
@@ -2531,13 +2342,13 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2588,13 +2399,13 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>72</v>
@@ -2608,10 +2419,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2619,10 +2430,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>72</v>
@@ -2634,13 +2445,13 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2691,13 +2502,13 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>72</v>
@@ -2711,10 +2522,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2722,10 +2533,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>72</v>
@@ -2737,13 +2548,13 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2794,13 +2605,13 @@
         <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>72</v>
@@ -2814,10 +2625,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2825,10 +2636,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>72</v>
@@ -2840,13 +2651,13 @@
         <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2897,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>72</v>
@@ -2917,10 +2728,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2928,10 +2739,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>72</v>
@@ -2943,13 +2754,13 @@
         <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3000,13 +2811,13 @@
         <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>72</v>
@@ -3020,10 +2831,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3031,10 +2842,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>72</v>
@@ -3046,13 +2857,13 @@
         <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3103,19 +2914,19 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>72</v>
@@ -3123,10 +2934,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3137,7 +2948,7 @@
         <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>72</v>
@@ -3149,13 +2960,13 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3206,13 +3017,13 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>72</v>
@@ -3221,26 +3032,26 @@
         <v>72</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>72</v>
@@ -3252,15 +3063,17 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>72</v>
@@ -3297,72 +3110,78 @@
         <v>72</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>72</v>
       </c>
@@ -3410,30 +3229,30 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3456,13 +3275,13 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3513,7 +3332,7 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -3533,10 +3352,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3544,10 +3363,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>72</v>
@@ -3559,13 +3378,13 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3616,13 +3435,13 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>72</v>
@@ -3636,10 +3455,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3647,10 +3466,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>72</v>
@@ -3662,13 +3481,13 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3719,13 +3538,13 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>72</v>
@@ -3739,10 +3558,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3750,10 +3569,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>72</v>
@@ -3765,13 +3584,13 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3822,13 +3641,13 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>72</v>
@@ -3842,10 +3661,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3856,7 +3675,7 @@
         <v>73</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>72</v>
@@ -3868,13 +3687,13 @@
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3925,13 +3744,13 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>72</v>
@@ -3945,10 +3764,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3956,10 +3775,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>72</v>
@@ -3971,13 +3790,13 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4028,19 +3847,19 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>72</v>
@@ -4048,10 +3867,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4062,7 +3881,7 @@
         <v>73</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>72</v>
@@ -4074,13 +3893,13 @@
         <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4107,13 +3926,11 @@
         <v>72</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>72</v>
+        <v>176</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>72</v>
@@ -4131,13 +3948,13 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>72</v>
@@ -4146,7 +3963,7 @@
         <v>72</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29">
@@ -4158,14 +3975,14 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>72</v>
@@ -4177,17 +3994,15 @@
         <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>72</v>
@@ -4224,46 +4039,46 @@
         <v>72</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4276,26 +4091,22 @@
         <v>72</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>72</v>
       </c>
@@ -4343,7 +4154,7 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -4355,18 +4166,18 @@
         <v>72</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4377,7 +4188,7 @@
         <v>73</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>72</v>
@@ -4389,13 +4200,13 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4446,13 +4257,13 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>72</v>
@@ -4466,10 +4277,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4477,10 +4288,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>72</v>
@@ -4492,13 +4303,13 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4549,13 +4360,13 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>72</v>
@@ -4569,10 +4380,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4580,10 +4391,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>72</v>
@@ -4595,13 +4406,13 @@
         <v>72</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4652,13 +4463,13 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>72</v>
@@ -4672,10 +4483,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4686,7 +4497,7 @@
         <v>73</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>72</v>
@@ -4698,13 +4509,13 @@
         <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4755,13 +4566,13 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>72</v>
@@ -4775,10 +4586,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4789,7 +4600,7 @@
         <v>73</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>72</v>
@@ -4801,13 +4612,13 @@
         <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4858,13 +4669,13 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>72</v>
@@ -4878,10 +4689,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4889,10 +4700,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>72</v>
@@ -4904,13 +4715,13 @@
         <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4961,13 +4772,13 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>72</v>
@@ -4981,10 +4792,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4995,7 +4806,7 @@
         <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>72</v>
@@ -5007,13 +4818,13 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5064,19 +4875,19 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>72</v>
@@ -5084,10 +4895,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5095,10 +4906,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>72</v>
@@ -5110,13 +4921,13 @@
         <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>203</v>
+        <v>94</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5167,13 +4978,13 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>72</v>
@@ -5182,26 +4993,26 @@
         <v>72</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>72</v>
@@ -5213,15 +5024,17 @@
         <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>72</v>
@@ -5258,74 +5071,78 @@
         <v>72</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>207</v>
+        <v>106</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>72</v>
       </c>
@@ -5373,30 +5190,30 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>210</v>
+        <v>114</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5407,7 +5224,7 @@
         <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>72</v>
@@ -5419,7 +5236,7 @@
         <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>212</v>
@@ -5476,13 +5293,13 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>72</v>
@@ -5496,10 +5313,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5507,10 +5324,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>72</v>
@@ -5522,13 +5339,13 @@
         <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>216</v>
-      </c>
       <c r="M42" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5579,13 +5396,13 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>72</v>
@@ -5599,10 +5416,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5610,10 +5427,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>72</v>
@@ -5625,13 +5442,13 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5658,11 +5475,13 @@
         <v>72</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y43" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z43" t="s" s="2">
-        <v>221</v>
+        <v>72</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>72</v>
@@ -5680,13 +5499,13 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>72</v>
@@ -5700,10 +5519,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5714,7 +5533,7 @@
         <v>73</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>72</v>
@@ -5726,13 +5545,13 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5783,13 +5602,13 @@
         <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>72</v>
@@ -5803,10 +5622,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5817,7 +5636,7 @@
         <v>73</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>72</v>
@@ -5829,13 +5648,13 @@
         <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -5886,13 +5705,13 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>72</v>
@@ -5901,2387 +5720,6 @@
         <v>72</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O49" s="2"/>
-      <c r="P49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="P50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK68" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="284">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -244,13 +244,76 @@
 </t>
   </si>
   <si>
-    <t>Base</t>
+    <t>Base for all elements</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">dateTime
@@ -263,17 +326,39 @@
     <t>BeReferralPrescription.recordedDate</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.prescriber</t>
+    <t>BeDiagnosticImagingPrescription.recorder</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
   </si>
   <si>
+    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.recorder</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.prescriber</t>
+  </si>
+  <si>
     <t>The prescribing healthcare party</t>
   </si>
   <si>
     <t>BeReferralPrescription.prescriber</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.co-prescriberNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Number of co-prescribers that must sign the prescription to activate it</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriberNumber</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.co-prescriber</t>
@@ -296,57 +381,7 @@
     <t>BeDiagnosticImagingPrescription.co-prescriber.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>BeDiagnosticImagingPrescription.co-prescriber.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.co-prescriber.modifierExtension</t>
@@ -406,6 +441,15 @@
     <t>BeReferralPrescription.co-prescriber.status</t>
   </si>
   <si>
+    <t>BeDiagnosticImagingPrescription.co-prescriber.required</t>
+  </si>
+  <si>
+    <t>Type of mandatory for the signature of the co-prescriber (1= required: the co-prescriber SHALL sign to make the prescription valid, 2= conditionally required: the co-prescriber SHALL sign if the number of co-prescribers with a signature is lower than the number in co-prescriber number 3= optional: the signature does not affect the validity of the prescription, but is for information only</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.required</t>
+  </si>
+  <si>
     <t>BeDiagnosticImagingPrescription.patient</t>
   </si>
   <si>
@@ -428,6 +472,37 @@
     <t>BeReferralPrescription.prescriptionNumber</t>
   </si>
   <si>
+    <t>BeDiagnosticImagingPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>An identifier for the Prescription Search Support</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.pssRejectionReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Reason for not following the PSS suggestion</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssRejectionReason</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.groupIdentifier</t>
+  </si>
+  <si>
+    <t>An identifier for the bundle this prescription belongs to.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.groupIdentifier</t>
+  </si>
+  <si>
     <t>BeDiagnosticImagingPrescription.basedOn</t>
   </si>
   <si>
@@ -471,34 +546,43 @@
     <t>BeReferralPrescription.treatmentValidationEndDate</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.intendedProvider</t>
+    <t>BeDiagnosticImagingPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status before</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer</t>
   </si>
   <si>
     <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedProvider.id</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedProvider.extension</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedProvider.modifierExtension</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedProvider.provider</t>
+    <t>BeReferralPrescription.intendedPerformer</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.id</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.extension</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.modifierExtension</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.performer</t>
   </si>
   <si>
     <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.provider</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedProvider.discipline</t>
+    <t>BeReferralPrescription.intendedPerformer.performer</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.discipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -508,7 +592,52 @@
     <t>The required discipline of the provider party</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.discipline</t>
+    <t>BeReferralPrescription.intendedPerformer.discipline</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>Start and enddate for the particular provider</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>Reference to an organization that will add the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.executionPeriod</t>
+  </si>
+  <si>
+    <t>Period in which the caregiver executes the treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.executionPeriod</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.status</t>
+  </si>
+  <si>
+    <t>Status of the action executed by the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.status</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.intendedPerformer.statusReason</t>
+  </si>
+  <si>
+    <t>The reason of the status of the action executed by the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.statusReason</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.serviceRequested</t>
@@ -518,6 +647,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.serviceRequestedDetail</t>
+  </si>
+  <si>
+    <t>More detailed specification of the prescribed act</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.serviceRequestedDetail</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.problemCode</t>
@@ -575,35 +713,76 @@
     <t>BeReferralPrescription.statusReason</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.bodySite</t>
-  </si>
-  <si>
-    <t>bodySite, e.g. using a SNOMED-CT code</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodySite</t>
+    <t>BeDiagnosticImagingPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>Status of the treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>Reason treatment status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>Place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.bodyLocation.id</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.bodyLocation.extension</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.bodyLocation.modifierExtension</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.bodyLocation.bodySite</t>
+  </si>
+  <si>
+    <t>Anatomical place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation.bodySite</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.bodyLocation.bodyLaterality</t>
+  </si>
+  <si>
+    <t>Side of the body</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
     <t>Additional text notes about the request.</t>
   </si>
   <si>
     <t>BeReferralPrescription.note</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.intent</t>
+    <t>BeDiagnosticImagingPrescription.prescriptionType</t>
   </si>
   <si>
     <t>Proposal, Prolongation, Prescription</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intent</t>
+    <t>BeReferralPrescription.prescriptionType</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.BeReferralPrescription</t>
@@ -695,6 +874,12 @@
   </si>
   <si>
     <t>If vital to this request, references may be given to previous diagnostic imaging</t>
+  </si>
+  <si>
+    <t>BeDiagnosticImagingPrescription.bodySite</t>
+  </si>
+  <si>
+    <t>bodySite, e.g. using a SNOMED-CT code</t>
   </si>
   <si>
     <t>BeDiagnosticImagingPrescription.proposedInvestigation</t>
@@ -1017,7 +1202,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK45"/>
+  <dimension ref="A1:AK68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1207,7 +1392,9 @@
       <c r="K2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="M2" t="s" s="2">
         <v>21</v>
       </c>
@@ -1260,7 +1447,7 @@
         <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>73</v>
@@ -1269,21 +1456,21 @@
         <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1291,10 +1478,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>72</v>
@@ -1306,13 +1493,13 @@
         <v>72</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1363,13 +1550,13 @@
         <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>72</v>
@@ -1378,26 +1565,26 @@
         <v>72</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>72</v>
@@ -1409,15 +1596,17 @@
         <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
         <v>72</v>
@@ -1454,42 +1643,42 @@
         <v>72</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1497,10 +1686,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>72</v>
@@ -1512,13 +1701,13 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1569,19 +1758,19 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>72</v>
@@ -1589,10 +1778,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1600,10 +1789,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>72</v>
@@ -1615,13 +1804,13 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1672,13 +1861,13 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>72</v>
@@ -1687,26 +1876,26 @@
         <v>72</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>72</v>
@@ -1718,17 +1907,15 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
         <v>72</v>
@@ -1765,34 +1952,34 @@
         <v>72</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
@@ -1804,39 +1991,35 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="J8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>113</v>
-      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>72</v>
       </c>
@@ -1884,30 +2067,30 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>115</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1918,7 +2101,7 @@
         <v>73</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>72</v>
@@ -1930,13 +2113,13 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1987,19 +2170,19 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>72</v>
@@ -2007,10 +2190,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2021,7 +2204,7 @@
         <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>72</v>
@@ -2033,13 +2216,13 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2090,13 +2273,13 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>72</v>
@@ -2105,26 +2288,26 @@
         <v>72</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>72</v>
@@ -2136,15 +2319,17 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>72</v>
@@ -2181,74 +2366,78 @@
         <v>72</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>72</v>
       </c>
@@ -2296,30 +2485,30 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>72</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2330,7 +2519,7 @@
         <v>73</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>72</v>
@@ -2342,13 +2531,13 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2399,13 +2588,13 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>72</v>
@@ -2419,10 +2608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2430,10 +2619,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>72</v>
@@ -2445,13 +2634,13 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2502,13 +2691,13 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>72</v>
@@ -2522,10 +2711,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2533,10 +2722,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>72</v>
@@ -2548,13 +2737,13 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2605,13 +2794,13 @@
         <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>72</v>
@@ -2625,10 +2814,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2636,10 +2825,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>72</v>
@@ -2651,13 +2840,13 @@
         <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>142</v>
-      </c>
       <c r="M16" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2708,13 +2897,13 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>72</v>
@@ -2728,10 +2917,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2739,10 +2928,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>72</v>
@@ -2754,13 +2943,13 @@
         <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2811,13 +3000,13 @@
         <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>72</v>
@@ -2831,10 +3020,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2842,10 +3031,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>72</v>
@@ -2857,13 +3046,13 @@
         <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2914,19 +3103,19 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>72</v>
@@ -2934,10 +3123,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2948,7 +3137,7 @@
         <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>72</v>
@@ -2960,13 +3149,13 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3017,13 +3206,13 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>72</v>
@@ -3032,26 +3221,26 @@
         <v>72</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>72</v>
@@ -3063,17 +3252,15 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>72</v>
@@ -3110,78 +3297,72 @@
         <v>72</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>72</v>
       </c>
@@ -3229,30 +3410,30 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>115</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3275,13 +3456,13 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3332,7 +3513,7 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -3352,10 +3533,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3363,10 +3544,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>72</v>
@@ -3378,13 +3559,13 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3435,13 +3616,13 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>72</v>
@@ -3455,10 +3636,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3466,10 +3647,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>72</v>
@@ -3481,13 +3662,13 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3538,13 +3719,13 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>72</v>
@@ -3558,10 +3739,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3569,10 +3750,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>72</v>
@@ -3584,13 +3765,13 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3641,13 +3822,13 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>72</v>
@@ -3661,10 +3842,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3675,7 +3856,7 @@
         <v>73</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>72</v>
@@ -3687,13 +3868,13 @@
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3744,13 +3925,13 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>72</v>
@@ -3764,10 +3945,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3775,10 +3956,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>72</v>
@@ -3790,13 +3971,13 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3847,19 +4028,19 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>72</v>
@@ -3867,10 +4048,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3881,7 +4062,7 @@
         <v>73</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>72</v>
@@ -3893,13 +4074,13 @@
         <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3926,11 +4107,13 @@
         <v>72</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>72</v>
@@ -3948,13 +4131,13 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>72</v>
@@ -3963,7 +4146,7 @@
         <v>72</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
@@ -3975,14 +4158,14 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>72</v>
@@ -3994,15 +4177,17 @@
         <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>72</v>
@@ -4039,46 +4224,46 @@
         <v>72</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4091,22 +4276,26 @@
         <v>72</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>72</v>
       </c>
@@ -4154,7 +4343,7 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -4166,18 +4355,18 @@
         <v>72</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>72</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4188,7 +4377,7 @@
         <v>73</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>72</v>
@@ -4200,13 +4389,13 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4257,13 +4446,13 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>72</v>
@@ -4277,10 +4466,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4288,10 +4477,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>72</v>
@@ -4303,13 +4492,13 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4360,13 +4549,13 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>72</v>
@@ -4380,10 +4569,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4391,10 +4580,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>72</v>
@@ -4406,13 +4595,13 @@
         <v>72</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4463,13 +4652,13 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>72</v>
@@ -4483,10 +4672,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4497,7 +4686,7 @@
         <v>73</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>72</v>
@@ -4509,13 +4698,13 @@
         <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4566,13 +4755,13 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>72</v>
@@ -4586,10 +4775,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4600,7 +4789,7 @@
         <v>73</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>72</v>
@@ -4612,13 +4801,13 @@
         <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4669,13 +4858,13 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>72</v>
@@ -4689,10 +4878,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4700,10 +4889,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>72</v>
@@ -4715,13 +4904,13 @@
         <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4772,13 +4961,13 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>72</v>
@@ -4792,10 +4981,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4806,7 +4995,7 @@
         <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>72</v>
@@ -4818,13 +5007,13 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -4875,19 +5064,19 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>72</v>
@@ -4895,10 +5084,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -4906,10 +5095,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>72</v>
@@ -4921,13 +5110,13 @@
         <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>93</v>
+        <v>203</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -4978,13 +5167,13 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>72</v>
@@ -4993,26 +5182,26 @@
         <v>72</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>72</v>
@@ -5024,17 +5213,15 @@
         <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>72</v>
@@ -5071,78 +5258,74 @@
         <v>72</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>111</v>
+        <v>209</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>72</v>
       </c>
@@ -5190,30 +5373,30 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>115</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5224,7 +5407,7 @@
         <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>72</v>
@@ -5236,7 +5419,7 @@
         <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>211</v>
+        <v>102</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>212</v>
@@ -5293,13 +5476,13 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>72</v>
@@ -5313,10 +5496,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5324,10 +5507,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>72</v>
@@ -5339,13 +5522,13 @@
         <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5396,13 +5579,13 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>72</v>
@@ -5416,10 +5599,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5427,10 +5610,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>72</v>
@@ -5442,13 +5625,13 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>217</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5475,13 +5658,11 @@
         <v>72</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>72</v>
+        <v>221</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>72</v>
@@ -5499,13 +5680,13 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>72</v>
@@ -5519,10 +5700,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5533,7 +5714,7 @@
         <v>73</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>72</v>
@@ -5545,13 +5726,13 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5602,13 +5783,13 @@
         <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>72</v>
@@ -5622,10 +5803,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5636,7 +5817,7 @@
         <v>73</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>72</v>
@@ -5648,13 +5829,13 @@
         <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -5705,13 +5886,13 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>72</v>
@@ -5720,6 +5901,2387 @@
         <v>72</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
+++ b/StructureDefinition-be-model-diagnosticimagingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="279">
   <si>
     <t>Property</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription</t>
   </si>
   <si>
     <t/>
@@ -244,23 +247,78 @@
 </t>
   </si>
   <si>
-    <t>Base for all elements</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
+    <t>Base</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.recordedDate</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.id</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>When this prescription was created</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.recordedDate</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.recorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.recorder</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.prescriber</t>
+  </si>
+  <si>
+    <t>The prescribing healthcare party</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.prescriber</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.co-prescriberNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Number of co-prescribers that must sign the prescription to activate it</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.co-prescriberNumber</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.co-prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Information about co prescribers</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.co-prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.co-prescriber.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -276,7 +334,10 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.extension</t>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.co-prescriber.extension</t>
   </si>
   <si>
     <t>extensions
@@ -313,78 +374,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When this prescription was created</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.recorder</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.prescriber</t>
-  </si>
-  <si>
-    <t>The prescribing healthcare party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.prescriber</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.co-prescriberNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Number of co-prescribers that must sign the prescription to activate it</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriberNumber</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.co-prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Information about co prescribers</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.co-prescriber.id</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.co-prescriber.extension</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.co-prescriber.modifierExtension</t>
+    <t>be-model-diagnosticimagingprescription.co-prescriber.modifierExtension</t>
   </si>
   <si>
     <t>extensions
@@ -410,16 +400,16 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.co-prescriber.co-prescriber</t>
+    <t>be-model-diagnosticimagingprescription.co-prescriber.co-prescriber</t>
   </si>
   <si>
     <t>The co-prescriber party</t>
   </si>
   <si>
-    <t>BeReferralPrescription.co-prescriber.co-prescriber</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.co-prescriber.co-prescriberType</t>
+    <t>be-model-referralprescription.co-prescriber.co-prescriber</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.co-prescriber.co-prescriberType</t>
   </si>
   <si>
     <t xml:space="preserve">code
@@ -429,37 +419,37 @@
     <t>Type of the practitioner</t>
   </si>
   <si>
-    <t>BeReferralPrescription.co-prescriber.co-prescriberType</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.co-prescriber.status</t>
+    <t>be-model-referralprescription.co-prescriber.co-prescriberType</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.co-prescriber.status</t>
   </si>
   <si>
     <t>Status of co prescribing status (to sign, signed or refused)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.co-prescriber.status</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.co-prescriber.required</t>
+    <t>be-model-referralprescription.co-prescriber.status</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.co-prescriber.required</t>
   </si>
   <si>
     <t>Type of mandatory for the signature of the co-prescriber (1= required: the co-prescriber SHALL sign to make the prescription valid, 2= conditionally required: the co-prescriber SHALL sign if the number of co-prescribers with a signature is lower than the number in co-prescriber number 3= optional: the signature does not affect the validity of the prescription, but is for information only</t>
   </si>
   <si>
-    <t>BeReferralPrescription.co-prescriber.required</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.patient</t>
+    <t>be-model-referralprescription.co-prescriber.required</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.patient</t>
   </si>
   <si>
     <t>The SSIN of the person for which the referral is prescribed.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.patient</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.prescriptionNumber</t>
+    <t>be-model-referralprescription.patient</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.prescriptionNumber</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
@@ -469,19 +459,19 @@
     <t>An identifier for the ReferralPrescription, e.g. the UHMEP identifier, once available</t>
   </si>
   <si>
-    <t>BeReferralPrescription.prescriptionNumber</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.pssNumber</t>
+    <t>be-model-referralprescription.prescriptionNumber</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.pssNumber</t>
   </si>
   <si>
     <t>An identifier for the Prescription Search Support</t>
   </si>
   <si>
-    <t>BeReferralPrescription.pssNumber</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.pssRejectionReason</t>
+    <t>be-model-referralprescription.pssNumber</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.pssRejectionReason</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
@@ -491,19 +481,19 @@
     <t>Reason for not following the PSS suggestion</t>
   </si>
   <si>
-    <t>BeReferralPrescription.pssRejectionReason</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.groupIdentifier</t>
+    <t>be-model-referralprescription.pssRejectionReason</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.groupIdentifier</t>
   </si>
   <si>
     <t>An identifier for the bundle this prescription belongs to.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.groupIdentifier</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.basedOn</t>
+    <t>be-model-referralprescription.groupIdentifier</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.basedOn</t>
   </si>
   <si>
     <t>The original request or prescription triggered this prescription</t>
@@ -512,10 +502,10 @@
     <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.validitionPeriod</t>
+    <t>be-model-referralprescription.basedOn</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.validitionPeriod</t>
   </si>
   <si>
     <t xml:space="preserve">Period
@@ -525,64 +515,64 @@
     <t>Period of validity of prescription</t>
   </si>
   <si>
-    <t>BeReferralPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.treatmentPeriod</t>
+    <t>be-model-referralprescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.treatmentPeriod</t>
   </si>
   <si>
     <t>When this prescription is executed, available after start of execution</t>
   </si>
   <si>
-    <t>BeReferralPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.treatmentValidationEndDate</t>
+    <t>be-model-referralprescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.treatmentValidationEndDate</t>
   </si>
   <si>
     <t>The latest moment to end this treatment</t>
   </si>
   <si>
-    <t>BeReferralPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.creationEndDate</t>
+    <t>be-model-referralprescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.creationEndDate</t>
   </si>
   <si>
     <t>The prescription must have left the draft status before</t>
   </si>
   <si>
-    <t>BeReferralPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer</t>
+    <t>be-model-referralprescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.intendedPerformer</t>
   </si>
   <si>
     <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.id</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.extension</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.modifierExtension</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.performer</t>
+    <t>be-model-referralprescription.intendedPerformer</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.intendedPerformer.id</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.intendedPerformer.extension</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.intendedPerformer.modifierExtension</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.intendedPerformer.performer</t>
   </si>
   <si>
     <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.discipline</t>
+    <t>be-model-referralprescription.intendedPerformer.performer</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.intendedPerformer.discipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -592,91 +582,91 @@
     <t>The required discipline of the provider party</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.period</t>
+    <t>be-model-referralprescription.intendedPerformer.discipline</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.intendedPerformer.period</t>
   </si>
   <si>
     <t>Start and enddate for the particular provider</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.period</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.organization</t>
+    <t>be-model-referralprescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.intendedPerformer.organization</t>
   </si>
   <si>
     <t>Reference to an organization that will add the performer</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.organization</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.executionPeriod</t>
+    <t>be-model-referralprescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.intendedPerformer.executionPeriod</t>
   </si>
   <si>
     <t>Period in which the caregiver executes the treatment</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.executionPeriod</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.status</t>
+    <t>be-model-referralprescription.intendedPerformer.executionPeriod</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.intendedPerformer.status</t>
   </si>
   <si>
     <t>Status of the action executed by the performer</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.status</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.intendedPerformer.statusReason</t>
+    <t>be-model-referralprescription.intendedPerformer.status</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.intendedPerformer.statusReason</t>
   </si>
   <si>
     <t>The reason of the status of the action executed by the performer</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.statusReason</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.serviceRequested</t>
+    <t>be-model-referralprescription.intendedPerformer.statusReason</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.serviceRequested</t>
   </si>
   <si>
     <t>What is prescribed</t>
   </si>
   <si>
-    <t>BeReferralPrescription.serviceRequested</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.serviceRequestedDetail</t>
+    <t>be-model-referralprescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.serviceRequestedDetail</t>
   </si>
   <si>
     <t>More detailed specification of the prescribed act</t>
   </si>
   <si>
-    <t>BeReferralPrescription.serviceRequestedDetail</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.problemCode</t>
+    <t>be-model-referralprescription.serviceRequestedDetail</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.problemCode</t>
   </si>
   <si>
     <t>The problem (code or reference) that is the main reason for this prescription</t>
   </si>
   <si>
-    <t>BeReferralPrescription.problemCode</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.supportingInfo</t>
+    <t>be-model-referralprescription.problemCode</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.supportingInfo</t>
   </si>
   <si>
     <t>Care Set Problem</t>
   </si>
   <si>
-    <t>BeReferralPrescription.supportingInfo</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.resultReceiver</t>
+    <t>be-model-referralprescription.supportingInfo</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.resultReceiver</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -686,10 +676,10 @@
     <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
   </si>
   <si>
-    <t>BeReferralPrescription.resultReceiver</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.status</t>
+    <t>be-model-referralprescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.status</t>
   </si>
   <si>
     <t>Current status</t>
@@ -701,101 +691,91 @@
     <t>http://hl7.org/fhir/ValueSet/request-status</t>
   </si>
   <si>
-    <t>BeReferralPrescription.status</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.statusReason</t>
+    <t>be-model-referralprescription.status</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.statusReason</t>
   </si>
   <si>
     <t>Reason current status</t>
   </si>
   <si>
-    <t>BeReferralPrescription.statusReason</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.treatmentStatus</t>
+    <t>be-model-referralprescription.statusReason</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.treatmentStatus</t>
   </si>
   <si>
     <t>Status of the treatment</t>
   </si>
   <si>
-    <t>BeReferralPrescription.treatmentStatus</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.treatmentStatusReason</t>
+    <t>be-model-referralprescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.treatmentStatusReason</t>
   </si>
   <si>
     <t>Reason treatment status</t>
   </si>
   <si>
-    <t>BeReferralPrescription.treatmentStatusReason</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.bodyLocation</t>
+    <t>be-model-referralprescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.bodyLocation</t>
   </si>
   <si>
     <t>Place where the treatment should be executed</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodyLocation</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.bodyLocation.id</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.bodyLocation.extension</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.bodyLocation.modifierExtension</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.bodyLocation.bodySite</t>
+    <t>be-model-referralprescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.bodyLocation.id</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.bodyLocation.extension</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.bodyLocation.modifierExtension</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.bodyLocation.bodySite</t>
   </si>
   <si>
     <t>Anatomical place where the treatment should be executed</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodyLocation.bodySite</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.bodyLocation.bodyLaterality</t>
+    <t>be-model-referralprescription.bodyLocation.bodySite</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.bodyLocation.bodyLaterality</t>
   </si>
   <si>
     <t>Side of the body</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.note</t>
+    <t>be-model-referralprescription.bodyLocation.bodyLaterality</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.note</t>
   </si>
   <si>
     <t>Additional text notes about the request.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.note</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.prescriptionType</t>
+    <t>be-model-referralprescription.note</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.prescriptionType</t>
   </si>
   <si>
     <t>Proposal, Prolongation, Prescription</t>
   </si>
   <si>
-    <t>BeReferralPrescription.prescriptionType</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.BeReferralPrescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BeReferralPrescription {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-model-referralprescription}
-</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.relevantClinicalInformation[x]</t>
+    <t>be-model-referralprescription.prescriptionType</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.relevantClinicalInformation[x]</t>
   </si>
   <si>
     <t>Annotation
@@ -808,7 +788,7 @@
     <t>e.g. stomach ache during 10 days, echo suspected damage kidneys, complaints of patients, allergies,...</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.diagnosticQuestion[x]</t>
+    <t>be-model-diagnosticimagingprescription.diagnosticQuestion[x]</t>
   </si>
   <si>
     <t>Annotation
@@ -821,7 +801,7 @@
     <t>e.g. Cyste? Metastasis?</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.contraIndication[x]</t>
+    <t>be-model-diagnosticimagingprescription.contraIndication[x]</t>
   </si>
   <si>
     <t>CodeableConcept
@@ -834,19 +814,22 @@
     <t>e.g.pregnancy, devices, kidney functioning</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.supportingInformation[x]</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.supportingInformation[x].id</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.supportingInformation[x].extension</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.supportingInformation[x].modifierExtension</t>
-  </si>
-  <si>
-    <t>BeDiagnosticImagingPrescription.supportingInformation[x].questionnaireResponse</t>
+    <t>be-model-diagnosticimagingprescription.supportingInformation[x]</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.supportingInformation[x].id</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.supportingInformation[x].extension</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.supportingInformation[x].modifierExtension</t>
+  </si>
+  <si>
+    <t>be-model-diagnosticimagingprescription.supportingInformation[x].questionnaireResponse</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(QuestionnaireResponse)
@@ -856,7 +839,7 @@
     <t>Questionnaire responses</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.supportingInformation[x].document</t>
+    <t>be-model-diagnosticimagingprescription.supportingInformation[x].document</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(DocumentReference)
@@ -866,7 +849,7 @@
     <t>Any document added as extra information</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.supportingInformation[x].imagingStudy</t>
+    <t>be-model-diagnosticimagingprescription.supportingInformation[x].imagingStudy</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(ImagingStudy)
@@ -876,19 +859,19 @@
     <t>If vital to this request, references may be given to previous diagnostic imaging</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.bodySite</t>
+    <t>be-model-diagnosticimagingprescription.bodySite</t>
   </si>
   <si>
     <t>bodySite, e.g. using a SNOMED-CT code</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.proposedInvestigation</t>
+    <t>be-model-diagnosticimagingprescription.proposedInvestigation</t>
   </si>
   <si>
     <t>What to do - coded or as text within the codeableConcept</t>
   </si>
   <si>
-    <t>BeDiagnosticImagingPrescription.contrastFluid</t>
+    <t>be-model-diagnosticimagingprescription.contrastFluid</t>
   </si>
   <si>
     <t>ifNecessary|notPermitted</t>
@@ -1071,7 +1054,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -1168,7 +1153,7 @@
         <v>28</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1202,7 +1187,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK68"/>
+  <dimension ref="A1:AK65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1211,8 +1196,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="77.13671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="77.13671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="83.8515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="83.8515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1221,7 +1206,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="117.19140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.16796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1242,7 +1227,7 @@
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="77.13671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="83.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1364,36 +1349,36 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>21</v>
@@ -1401,6058 +1386,6062 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="P10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y43" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z43" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>231</v>
+        <v>103</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>233</v>
+        <v>108</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="P48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>95</v>
+        <v>237</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>122</v>
+        <v>239</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>151</v>
+        <v>248</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>254</v>
+        <v>95</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>258</v>
+        <v>100</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>259</v>
+        <v>101</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>260</v>
+        <v>102</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>257</v>
+        <v>103</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>263</v>
+        <v>108</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>261</v>
+        <v>114</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="P59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>265</v>
+        <v>122</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>72</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>82</v>
+        <v>265</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>83</v>
+        <v>266</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>84</v>
+        <v>266</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>85</v>
+        <v>264</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61">
@@ -7464,825 +7453,510 @@
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>88</v>
+        <v>268</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>89</v>
+        <v>269</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>95</v>
+        <v>267</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>88</v>
+        <v>271</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>122</v>
+        <v>272</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U62" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>125</v>
+        <v>270</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U63" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V63" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>273</v>
+        <v>181</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>276</v>
+        <v>128</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U65" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V65" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
